--- a/assignment2/data/vaccination_edited.xlsx
+++ b/assignment2/data/vaccination_edited.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khash\Documents\GitHub\FIT3179\assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972F47D5-C6C9-49DB-BFB8-53BEBC682080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9CFAEE1F-7794-4AE3-8DDF-3903C2D7255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vaccination" sheetId="1" r:id="rId1"/>
+    <sheet name="vaccination_edited" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,18 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="54">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>dose1_perlis</t>
-  </si>
-  <si>
-    <t>dose2_perlis</t>
-  </si>
-  <si>
-    <t>dose1_kedah</t>
   </si>
   <si>
     <t>dose2_kedah</t>
@@ -191,64 +182,19 @@
     <t>03/31/2021</t>
   </si>
   <si>
-    <t>Vaccinations</t>
-  </si>
-  <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>Nominalised vaccinations</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>perlis</t>
+    <t>Dose</t>
   </si>
   <si>
-    <t>kedah</t>
+    <t>Perlis</t>
   </si>
   <si>
-    <t>penang</t>
-  </si>
-  <si>
-    <t>perak</t>
-  </si>
-  <si>
-    <t>selangor</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t>putrajaya</t>
-  </si>
-  <si>
-    <t>ns</t>
-  </si>
-  <si>
-    <t>melaka</t>
-  </si>
-  <si>
-    <t>kelantan</t>
-  </si>
-  <si>
-    <t>terengganu</t>
-  </si>
-  <si>
-    <t>pahang</t>
-  </si>
-  <si>
-    <t>johor</t>
-  </si>
-  <si>
-    <t>sabah</t>
-  </si>
-  <si>
-    <t>labuan</t>
-  </si>
-  <si>
-    <t>sarawak</t>
+    <t>Kedah</t>
   </si>
 </sst>
 </file>
@@ -1090,139 +1036,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44258</v>
       </c>
       <c r="B2">
         <v>1598</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>4388</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1311,32 +1248,19 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2">
-        <v>10016</v>
-      </c>
-      <c r="AJ2">
-        <v>187756</v>
-      </c>
-      <c r="AK2">
-        <f>AI2/AJ2*100</f>
-        <v>5.3345831824282586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44289</v>
       </c>
       <c r="B3">
         <v>1896</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>5171</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1425,32 +1349,19 @@
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3">
-        <v>33449</v>
-      </c>
-      <c r="AJ3">
-        <v>1595396</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" ref="AK3:AK17" si="0">AI3/AJ3*100</f>
-        <v>2.096595453417208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44319</v>
       </c>
       <c r="B4">
         <v>2223</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>5306</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1539,32 +1450,19 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4">
-        <v>35728</v>
-      </c>
-      <c r="AJ4">
-        <v>1385097</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>2.5794583339650581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44350</v>
       </c>
       <c r="B5">
         <v>2223</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>5414</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1653,32 +1551,19 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5">
-        <v>52639</v>
-      </c>
-      <c r="AJ5">
-        <v>1932525</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>2.7238457458506358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44380</v>
       </c>
       <c r="B6">
         <v>2223</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>6269</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1767,32 +1652,19 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI6">
-        <v>76273</v>
-      </c>
-      <c r="AJ6">
-        <v>4838547</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>1.5763616639458085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44411</v>
       </c>
       <c r="B7">
         <v>3062</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>9358</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1881,32 +1753,19 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI7">
-        <v>52110</v>
-      </c>
-      <c r="AJ7">
-        <v>1481138</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>3.5182407041072472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44442</v>
       </c>
       <c r="B8">
         <v>4158</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>11638</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1995,32 +1854,19 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AH8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI8">
-        <v>7222</v>
-      </c>
-      <c r="AJ8">
-        <v>56913</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>12.689543689490979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44472</v>
       </c>
       <c r="B9">
         <v>5241</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>14200</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2109,32 +1955,19 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9">
-        <v>29765</v>
-      </c>
-      <c r="AJ9">
-        <v>850890</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="0"/>
-        <v>3.4981019873309123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44503</v>
       </c>
       <c r="B10">
         <v>6006</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>15834</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2223,32 +2056,19 @@
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI10">
-        <v>16566</v>
-      </c>
-      <c r="AJ10">
-        <v>701711</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="0"/>
-        <v>2.360800956519137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44533</v>
       </c>
       <c r="B11">
         <v>6591</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>16546</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2337,32 +2157,19 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11">
-        <v>25293</v>
-      </c>
-      <c r="AJ11">
-        <v>1237273</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="0"/>
-        <v>2.0442537742276765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>6807</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>17114</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2451,32 +2258,19 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI12">
-        <v>26557</v>
-      </c>
-      <c r="AJ12">
-        <v>841837</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>3.1546487027773789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>6807</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>18539</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2565,32 +2359,19 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI13">
-        <v>36049</v>
-      </c>
-      <c r="AJ13">
-        <v>1235357</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="0"/>
-        <v>2.9181038355714182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>7276</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>21171</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2679,32 +2460,19 @@
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AH14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI14">
-        <v>49401</v>
-      </c>
-      <c r="AJ14">
-        <v>2839652</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="0"/>
-        <v>1.7396850036553775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>8038</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>23871</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2793,32 +2561,19 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15">
-        <v>53859</v>
-      </c>
-      <c r="AJ15">
-        <v>2921000</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="0"/>
-        <v>1.8438548442314275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>8795</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>25492</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2907,32 +2662,19 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI16">
-        <v>3331</v>
-      </c>
-      <c r="AJ16">
-        <v>72272</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="0"/>
-        <v>4.6089771972548155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>9519</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
         <v>1</v>
-      </c>
-      <c r="D17">
-        <v>25958</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3021,32 +2763,19 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI17">
-        <v>57682</v>
-      </c>
-      <c r="AJ17">
-        <v>2072490</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="0"/>
-        <v>2.7832221144613487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>9526</v>
       </c>
-      <c r="C18">
-        <v>154</v>
+      <c r="C18" t="s">
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>26259</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -3136,18 +2865,18 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>9526</v>
       </c>
-      <c r="C19">
-        <v>156</v>
+      <c r="C19" t="s">
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>26265</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -3237,18 +2966,18 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>9526</v>
       </c>
-      <c r="C20">
-        <v>156</v>
+      <c r="C20" t="s">
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>26271</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>719</v>
@@ -3338,18 +3067,18 @@
         <v>7735</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>9526</v>
       </c>
-      <c r="C21">
-        <v>504</v>
+      <c r="C21" t="s">
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>26287</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1896</v>
@@ -3439,18 +3168,18 @@
         <v>9537</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>9526</v>
       </c>
-      <c r="C22">
-        <v>1037</v>
+      <c r="C22" t="s">
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>26293</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>3138</v>
@@ -3540,18 +3269,18 @@
         <v>10166</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>9530</v>
       </c>
-      <c r="C23">
-        <v>1561</v>
+      <c r="C23" t="s">
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>26310</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>4469</v>
@@ -3641,18 +3370,18 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>9533</v>
       </c>
-      <c r="C24">
-        <v>1853</v>
+      <c r="C24" t="s">
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>26316</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>5009</v>
@@ -3742,18 +3471,18 @@
         <v>11017</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>9533</v>
       </c>
-      <c r="C25">
-        <v>2157</v>
+      <c r="C25" t="s">
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>26316</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>5144</v>
@@ -3843,18 +3572,18 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>9533</v>
       </c>
-      <c r="C26">
-        <v>2157</v>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>26316</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>5238</v>
@@ -3944,18 +3673,18 @@
         <v>15135</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>9533</v>
       </c>
-      <c r="C27">
-        <v>2157</v>
+      <c r="C27" t="s">
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>26355</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>6007</v>
@@ -4045,18 +3774,18 @@
         <v>19145</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>9581</v>
       </c>
-      <c r="C28">
-        <v>2978</v>
+      <c r="C28" t="s">
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>27257</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>8825</v>
@@ -4146,18 +3875,18 @@
         <v>22429</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>9592</v>
       </c>
-      <c r="C29">
-        <v>4035</v>
+      <c r="C29" t="s">
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>28209</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>11139</v>
@@ -4247,18 +3976,18 @@
         <v>24535</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>9840</v>
       </c>
-      <c r="C30">
-        <v>4465</v>
+      <c r="C30" t="s">
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>29089</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>13650</v>
@@ -4348,18 +4077,18 @@
         <v>25236</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44200</v>
       </c>
       <c r="B31">
         <v>9846</v>
       </c>
-      <c r="C31">
-        <v>5610</v>
+      <c r="C31" t="s">
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>30316</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>15300</v>
@@ -4449,18 +4178,18 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44231</v>
       </c>
       <c r="B32">
         <v>9855</v>
       </c>
-      <c r="C32">
-        <v>6455</v>
+      <c r="C32" t="s">
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>30536</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>15698</v>
@@ -4557,11 +4286,11 @@
       <c r="B33">
         <v>9858</v>
       </c>
-      <c r="C33">
-        <v>6668</v>
+      <c r="C33" t="s">
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>30550</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>16130</v>
@@ -4658,11 +4387,11 @@
       <c r="B34">
         <v>9858</v>
       </c>
-      <c r="C34">
-        <v>6668</v>
+      <c r="C34" t="s">
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>31115</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>17493</v>
@@ -4759,11 +4488,11 @@
       <c r="B35">
         <v>9863</v>
       </c>
-      <c r="C35">
-        <v>6820</v>
+      <c r="C35" t="s">
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>31324</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>19925</v>
@@ -4860,11 +4589,11 @@
       <c r="B36">
         <v>10001</v>
       </c>
-      <c r="C36">
-        <v>6854</v>
+      <c r="C36" t="s">
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>32089</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>22579</v>
@@ -4961,11 +4690,11 @@
       <c r="B37">
         <v>10001</v>
       </c>
-      <c r="C37">
-        <v>6884</v>
+      <c r="C37" t="s">
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>32556</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>24046</v>
@@ -5062,11 +4791,11 @@
       <c r="B38">
         <v>10001</v>
       </c>
-      <c r="C38">
-        <v>6920</v>
+      <c r="C38" t="s">
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>32836</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>24621</v>
@@ -5163,11 +4892,11 @@
       <c r="B39">
         <v>10016</v>
       </c>
-      <c r="C39">
-        <v>8026</v>
+      <c r="C39" t="s">
+        <v>52</v>
       </c>
       <c r="D39">
-        <v>33449</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>24698</v>
@@ -5255,6 +4984,1374 @@
       </c>
       <c r="AG39">
         <v>30014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59">
+        <v>504</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60">
+        <v>1037</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <v>1561</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>1853</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>2157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>2157</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>2157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>2978</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>4035</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68">
+        <v>4465</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B69">
+        <v>5610</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B70">
+        <v>6455</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B71">
+        <v>6668</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B72">
+        <v>6668</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B73">
+        <v>6820</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B74">
+        <v>6854</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B75">
+        <v>6884</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B76">
+        <v>6920</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B77">
+        <v>8026</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B78">
+        <v>4388</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B79">
+        <v>5171</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B80">
+        <v>5306</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B81">
+        <v>5414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B82">
+        <v>6269</v>
+      </c>
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B83">
+        <v>9358</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B84">
+        <v>11638</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B85">
+        <v>14200</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B86">
+        <v>15834</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B87">
+        <v>16546</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>17114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>18539</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90">
+        <v>21171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91">
+        <v>23871</v>
+      </c>
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92">
+        <v>25492</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>25958</v>
+      </c>
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>26259</v>
+      </c>
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95">
+        <v>26265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96">
+        <v>26271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97">
+        <v>26287</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98">
+        <v>26293</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99">
+        <v>26310</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100">
+        <v>26316</v>
+      </c>
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101">
+        <v>26316</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102">
+        <v>26316</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103">
+        <v>26355</v>
+      </c>
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104">
+        <v>27257</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105">
+        <v>28209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106">
+        <v>29089</v>
+      </c>
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B107">
+        <v>30316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B108">
+        <v>30536</v>
+      </c>
+      <c r="C108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B109">
+        <v>30550</v>
+      </c>
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B110">
+        <v>31115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B111">
+        <v>31324</v>
+      </c>
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B112">
+        <v>32089</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B113">
+        <v>32556</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B114">
+        <v>32836</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B115">
+        <v>33449</v>
+      </c>
+      <c r="C115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B116">
+        <v>4388</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B117">
+        <v>5171</v>
+      </c>
+      <c r="C117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B118">
+        <v>5306</v>
+      </c>
+      <c r="C118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B119">
+        <v>5414</v>
+      </c>
+      <c r="C119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B120">
+        <v>6269</v>
+      </c>
+      <c r="C120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B121">
+        <v>9358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B122">
+        <v>11638</v>
+      </c>
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B123">
+        <v>14200</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B124">
+        <v>15834</v>
+      </c>
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B125">
+        <v>16546</v>
+      </c>
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126">
+        <v>17114</v>
+      </c>
+      <c r="C126" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
+        <v>18539</v>
+      </c>
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128">
+        <v>21171</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129">
+        <v>23871</v>
+      </c>
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130">
+        <v>25492</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131">
+        <v>25958</v>
+      </c>
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132">
+        <v>26259</v>
+      </c>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133">
+        <v>26265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134">
+        <v>26271</v>
+      </c>
+      <c r="C134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135">
+        <v>26287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136">
+        <v>26293</v>
+      </c>
+      <c r="C136" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137">
+        <v>26310</v>
+      </c>
+      <c r="C137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138">
+        <v>26316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139">
+        <v>26316</v>
+      </c>
+      <c r="C139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140">
+        <v>26316</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141">
+        <v>26355</v>
+      </c>
+      <c r="C141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142">
+        <v>27257</v>
+      </c>
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143">
+        <v>28209</v>
+      </c>
+      <c r="C143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144">
+        <v>29089</v>
+      </c>
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B145">
+        <v>30316</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B146">
+        <v>30536</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B147">
+        <v>30550</v>
+      </c>
+      <c r="C147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B148">
+        <v>31115</v>
+      </c>
+      <c r="C148" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B149">
+        <v>31324</v>
+      </c>
+      <c r="C149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B150">
+        <v>32089</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B151">
+        <v>32556</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B152">
+        <v>32836</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B153">
+        <v>33449</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/assignment2/data/vaccination_edited.xlsx
+++ b/assignment2/data/vaccination_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khash\Documents\GitHub\FIT3179\assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE7AF50-C7C0-4896-B2AA-1D76277EF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8FC34-6797-44CE-AB73-67C5CB690ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Penang</t>
   </si>
   <si>
-    <t>Nominalised Vaccinations</t>
-  </si>
-  <si>
     <t>Perak</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Sarawak</t>
+  </si>
+  <si>
+    <t>Normalised Vaccinations</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:AG1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1104,7 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F104" si="1">B41/$E$2*100</f>
+        <f t="shared" ref="F41:F77" si="1">B41/$E$2*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143:F206" si="3">B143/$E$3*100</f>
+        <f t="shared" ref="F143:F153" si="3">B143/$E$3*100</f>
         <v>0.69819656060313551</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F282" si="5">B219/$E$4*100</f>
+        <f t="shared" ref="F219:F229" si="5">B219/$E$4*100</f>
         <v>0.54198370222446512</v>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
         <v>7757</v>
       </c>
       <c r="C230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>8844</v>
       </c>
       <c r="C231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -5381,7 +5381,7 @@
         <v>9892</v>
       </c>
       <c r="C232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>10678</v>
       </c>
       <c r="C233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -5417,7 +5417,7 @@
         <v>10678</v>
       </c>
       <c r="C234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -5435,7 +5435,7 @@
         <v>12952</v>
       </c>
       <c r="C235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>15881</v>
       </c>
       <c r="C236" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>17450</v>
       </c>
       <c r="C237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>21160</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5507,7 +5507,7 @@
         <v>28463</v>
       </c>
       <c r="C239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>31675</v>
       </c>
       <c r="C240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>33036</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -5561,7 +5561,7 @@
         <v>34666</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5579,7 +5579,7 @@
         <v>39404</v>
       </c>
       <c r="C243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>42227</v>
       </c>
       <c r="C244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>45138</v>
       </c>
       <c r="C245" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>47056</v>
       </c>
       <c r="C246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -5651,7 +5651,7 @@
         <v>48136</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>48689</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>49053</v>
       </c>
       <c r="C249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5705,7 +5705,7 @@
         <v>49451</v>
       </c>
       <c r="C250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -5723,7 +5723,7 @@
         <v>49528</v>
       </c>
       <c r="C251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -5741,7 +5741,7 @@
         <v>49535</v>
       </c>
       <c r="C252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>49541</v>
       </c>
       <c r="C253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>49545</v>
       </c>
       <c r="C254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5795,7 +5795,7 @@
         <v>49545</v>
       </c>
       <c r="C255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>49349</v>
       </c>
       <c r="C256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5831,7 +5831,7 @@
         <v>49359</v>
       </c>
       <c r="C257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>49365</v>
       </c>
       <c r="C258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>49996</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>50307</v>
       </c>
       <c r="C260" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>50334</v>
       </c>
       <c r="C261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5921,7 +5921,7 @@
         <v>50378</v>
       </c>
       <c r="C262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -5939,7 +5939,7 @@
         <v>51149</v>
       </c>
       <c r="C263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>51469</v>
       </c>
       <c r="C264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>52032</v>
       </c>
       <c r="C265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -5993,7 +5993,7 @@
         <v>52548</v>
       </c>
       <c r="C266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -6011,7 +6011,7 @@
         <v>52639</v>
       </c>
       <c r="C267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D279">
         <v>2</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D281">
         <v>2</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>173</v>
       </c>
       <c r="C283" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -6317,7 +6317,7 @@
         <v>475</v>
       </c>
       <c r="C284" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -6335,7 +6335,7 @@
         <v>713</v>
       </c>
       <c r="C285" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>829</v>
       </c>
       <c r="C286" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -6371,7 +6371,7 @@
         <v>2363</v>
       </c>
       <c r="C287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -6389,7 +6389,7 @@
         <v>5337</v>
       </c>
       <c r="C288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -6407,7 +6407,7 @@
         <v>7197</v>
       </c>
       <c r="C289" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -6425,7 +6425,7 @@
         <v>8164</v>
       </c>
       <c r="C290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -6443,7 +6443,7 @@
         <v>9081</v>
       </c>
       <c r="C291" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -6461,7 +6461,7 @@
         <v>9760</v>
       </c>
       <c r="C292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -6479,7 +6479,7 @@
         <v>9760</v>
       </c>
       <c r="C293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -6497,7 +6497,7 @@
         <v>12219</v>
       </c>
       <c r="C294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -6515,13 +6515,13 @@
         <v>14962</v>
       </c>
       <c r="C295" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D295">
         <v>2</v>
       </c>
       <c r="F295">
-        <f t="shared" ref="F295:F358" si="7">B295/$E$5*100</f>
+        <f t="shared" ref="F295:F305" si="7">B295/$E$5*100</f>
         <v>0.7742202558828476</v>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
         <v>16669</v>
       </c>
       <c r="C296" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -6551,7 +6551,7 @@
         <v>20717</v>
       </c>
       <c r="C297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>26662</v>
       </c>
       <c r="C298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>29412</v>
       </c>
       <c r="C299" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -6605,7 +6605,7 @@
         <v>30793</v>
       </c>
       <c r="C300" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -6623,7 +6623,7 @@
         <v>32132</v>
       </c>
       <c r="C301" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -6641,7 +6641,7 @@
         <v>34035</v>
       </c>
       <c r="C302" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -6659,7 +6659,7 @@
         <v>34235</v>
       </c>
       <c r="C303" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -6677,7 +6677,7 @@
         <v>34436</v>
       </c>
       <c r="C304" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -6695,7 +6695,7 @@
         <v>37884</v>
       </c>
       <c r="C305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -6713,7 +6713,7 @@
         <v>4276</v>
       </c>
       <c r="C306" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -6731,7 +6731,7 @@
         <v>6483</v>
       </c>
       <c r="C307" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>8899</v>
       </c>
       <c r="C308" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>11982</v>
       </c>
       <c r="C309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>12336</v>
       </c>
       <c r="C310" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>15357</v>
       </c>
       <c r="C311" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -6821,7 +6821,7 @@
         <v>19251</v>
       </c>
       <c r="C312" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>24211</v>
       </c>
       <c r="C313" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -6857,7 +6857,7 @@
         <v>29208</v>
       </c>
       <c r="C314" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -6875,7 +6875,7 @@
         <v>33163</v>
       </c>
       <c r="C315" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -6893,7 +6893,7 @@
         <v>35620</v>
       </c>
       <c r="C316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -6911,7 +6911,7 @@
         <v>36163</v>
       </c>
       <c r="C317" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6929,7 +6929,7 @@
         <v>38632</v>
       </c>
       <c r="C318" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>41913</v>
       </c>
       <c r="C319" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -6965,7 +6965,7 @@
         <v>45854</v>
       </c>
       <c r="C320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -6983,7 +6983,7 @@
         <v>49521</v>
       </c>
       <c r="C321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -7001,7 +7001,7 @@
         <v>52412</v>
       </c>
       <c r="C322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -7019,7 +7019,7 @@
         <v>52971</v>
       </c>
       <c r="C323" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>53566</v>
       </c>
       <c r="C324" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -7055,7 +7055,7 @@
         <v>55763</v>
       </c>
       <c r="C325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>58552</v>
       </c>
       <c r="C326" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -7091,7 +7091,7 @@
         <v>60521</v>
       </c>
       <c r="C327" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -7109,7 +7109,7 @@
         <v>62418</v>
       </c>
       <c r="C328" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>63640</v>
       </c>
       <c r="C329" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -7145,7 +7145,7 @@
         <v>63675</v>
       </c>
       <c r="C330" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -7163,7 +7163,7 @@
         <v>63675</v>
       </c>
       <c r="C331" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -7181,7 +7181,7 @@
         <v>65313</v>
       </c>
       <c r="C332" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>67128</v>
       </c>
       <c r="C333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>67931</v>
       </c>
       <c r="C334" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -7235,7 +7235,7 @@
         <v>69852</v>
       </c>
       <c r="C335" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -7253,7 +7253,7 @@
         <v>71389</v>
       </c>
       <c r="C336" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -7271,7 +7271,7 @@
         <v>71403</v>
       </c>
       <c r="C337" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -7289,7 +7289,7 @@
         <v>71405</v>
       </c>
       <c r="C338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -7307,7 +7307,7 @@
         <v>72666</v>
       </c>
       <c r="C339" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -7325,7 +7325,7 @@
         <v>73433</v>
       </c>
       <c r="C340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>74659</v>
       </c>
       <c r="C341" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>75225</v>
       </c>
       <c r="C342" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -7379,7 +7379,7 @@
         <v>76273</v>
       </c>
       <c r="C343" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D354">
         <v>2</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -7667,7 +7667,7 @@
         <v>41</v>
       </c>
       <c r="C359" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D359">
         <v>2</v>
@@ -7685,7 +7685,7 @@
         <v>369</v>
       </c>
       <c r="C360" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -7703,7 +7703,7 @@
         <v>369</v>
       </c>
       <c r="C361" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D361">
         <v>2</v>
@@ -7721,7 +7721,7 @@
         <v>369</v>
       </c>
       <c r="C362" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -7739,7 +7739,7 @@
         <v>1017</v>
       </c>
       <c r="C363" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -7757,7 +7757,7 @@
         <v>2174</v>
       </c>
       <c r="C364" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -7775,7 +7775,7 @@
         <v>4224</v>
       </c>
       <c r="C365" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -7793,7 +7793,7 @@
         <v>6355</v>
       </c>
       <c r="C366" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>8663</v>
       </c>
       <c r="C367" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -7829,7 +7829,7 @@
         <v>11370</v>
       </c>
       <c r="C368" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D368">
         <v>2</v>
@@ -7847,7 +7847,7 @@
         <v>11642</v>
       </c>
       <c r="C369" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -7865,7 +7865,7 @@
         <v>14957</v>
       </c>
       <c r="C370" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -7883,13 +7883,13 @@
         <v>18720</v>
       </c>
       <c r="C371" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D371">
         <v>2</v>
       </c>
       <c r="F371">
-        <f t="shared" ref="F371:F434" si="9">B371/$E$6*100</f>
+        <f t="shared" ref="F371:F381" si="9">B371/$E$6*100</f>
         <v>0.38689300734290688</v>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
         <v>23515</v>
       </c>
       <c r="C372" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -7919,7 +7919,7 @@
         <v>28616</v>
       </c>
       <c r="C373" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -7937,7 +7937,7 @@
         <v>32258</v>
       </c>
       <c r="C374" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D374">
         <v>2</v>
@@ -7955,7 +7955,7 @@
         <v>34716</v>
       </c>
       <c r="C375" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -7973,7 +7973,7 @@
         <v>35255</v>
       </c>
       <c r="C376" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>38018</v>
       </c>
       <c r="C377" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D377">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>41043</v>
       </c>
       <c r="C378" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D378">
         <v>2</v>
@@ -8027,7 +8027,7 @@
         <v>44776</v>
       </c>
       <c r="C379" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -8045,7 +8045,7 @@
         <v>48493</v>
       </c>
       <c r="C380" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -8063,7 +8063,7 @@
         <v>51383</v>
       </c>
       <c r="C381" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -8081,7 +8081,7 @@
         <v>8505</v>
       </c>
       <c r="C382" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -8099,7 +8099,7 @@
         <v>10970</v>
       </c>
       <c r="C383" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -8117,7 +8117,7 @@
         <v>11266</v>
       </c>
       <c r="C384" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -8135,7 +8135,7 @@
         <v>11266</v>
       </c>
       <c r="C385" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>11267</v>
       </c>
       <c r="C386" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>13681</v>
       </c>
       <c r="C387" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -8189,7 +8189,7 @@
         <v>16887</v>
       </c>
       <c r="C388" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>20510</v>
       </c>
       <c r="C389" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -8225,7 +8225,7 @@
         <v>25190</v>
       </c>
       <c r="C390" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -8243,7 +8243,7 @@
         <v>28244</v>
       </c>
       <c r="C391" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -8261,7 +8261,7 @@
         <v>28244</v>
       </c>
       <c r="C392" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>28244</v>
       </c>
       <c r="C393" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>29937</v>
       </c>
       <c r="C394" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -8315,7 +8315,7 @@
         <v>31740</v>
       </c>
       <c r="C395" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -8333,7 +8333,7 @@
         <v>33500</v>
       </c>
       <c r="C396" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -8351,7 +8351,7 @@
         <v>34778</v>
       </c>
       <c r="C397" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -8369,7 +8369,7 @@
         <v>35751</v>
       </c>
       <c r="C398" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -8387,7 +8387,7 @@
         <v>35751</v>
       </c>
       <c r="C399" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -8405,7 +8405,7 @@
         <v>35751</v>
       </c>
       <c r="C400" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -8423,7 +8423,7 @@
         <v>36616</v>
       </c>
       <c r="C401" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -8441,7 +8441,7 @@
         <v>37254</v>
       </c>
       <c r="C402" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -8459,7 +8459,7 @@
         <v>37617</v>
       </c>
       <c r="C403" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>38645</v>
       </c>
       <c r="C404" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -8495,7 +8495,7 @@
         <v>39622</v>
       </c>
       <c r="C405" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -8513,7 +8513,7 @@
         <v>39622</v>
       </c>
       <c r="C406" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>39622</v>
       </c>
       <c r="C407" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>41747</v>
       </c>
       <c r="C408" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>44110</v>
       </c>
       <c r="C409" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>44499</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -8603,7 +8603,7 @@
         <v>44702</v>
       </c>
       <c r="C411" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -8621,7 +8621,7 @@
         <v>44925</v>
       </c>
       <c r="C412" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -8639,7 +8639,7 @@
         <v>44925</v>
       </c>
       <c r="C413" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>44925</v>
       </c>
       <c r="C414" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -8675,7 +8675,7 @@
         <v>46179</v>
       </c>
       <c r="C415" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>47251</v>
       </c>
       <c r="C416" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>49114</v>
       </c>
       <c r="C417" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -8729,7 +8729,7 @@
         <v>51100</v>
       </c>
       <c r="C418" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -8747,7 +8747,7 @@
         <v>52110</v>
       </c>
       <c r="C419" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D419">
         <v>2</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D420">
         <v>2</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="C422" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D423">
         <v>2</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D424">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="C425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D425">
         <v>2</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D427">
         <v>2</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="C430" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D430">
         <v>2</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="C431" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D432">
         <v>2</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="C434" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D434">
         <v>2</v>
@@ -9035,7 +9035,7 @@
         <v>287</v>
       </c>
       <c r="C435" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D435">
         <v>2</v>
@@ -9053,7 +9053,7 @@
         <v>565</v>
       </c>
       <c r="C436" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -9071,7 +9071,7 @@
         <v>565</v>
       </c>
       <c r="C437" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D437">
         <v>2</v>
@@ -9089,7 +9089,7 @@
         <v>565</v>
       </c>
       <c r="C438" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D438">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>2722</v>
       </c>
       <c r="C439" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D439">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>4894</v>
       </c>
       <c r="C440" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D440">
         <v>2</v>
@@ -9143,7 +9143,7 @@
         <v>7769</v>
       </c>
       <c r="C441" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -9161,7 +9161,7 @@
         <v>10662</v>
       </c>
       <c r="C442" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D442">
         <v>2</v>
@@ -9179,7 +9179,7 @@
         <v>10890</v>
       </c>
       <c r="C443" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D443">
         <v>2</v>
@@ -9197,7 +9197,7 @@
         <v>10890</v>
       </c>
       <c r="C444" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -9215,7 +9215,7 @@
         <v>10890</v>
       </c>
       <c r="C445" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -9233,7 +9233,7 @@
         <v>13040</v>
       </c>
       <c r="C446" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D446">
         <v>2</v>
@@ -9251,13 +9251,13 @@
         <v>15520</v>
       </c>
       <c r="C447" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D447">
         <v>2</v>
       </c>
       <c r="F447">
-        <f t="shared" ref="F447:F510" si="11">B447/$E$7*100</f>
+        <f t="shared" ref="F447:F457" si="11">B447/$E$7*100</f>
         <v>1.0478429423861921</v>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
         <v>19226</v>
       </c>
       <c r="C448" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D448">
         <v>2</v>
@@ -9287,7 +9287,7 @@
         <v>23899</v>
       </c>
       <c r="C449" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D449">
         <v>2</v>
@@ -9305,7 +9305,7 @@
         <v>26635</v>
       </c>
       <c r="C450" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D450">
         <v>2</v>
@@ -9323,7 +9323,7 @@
         <v>26637</v>
       </c>
       <c r="C451" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D451">
         <v>2</v>
@@ -9341,7 +9341,7 @@
         <v>26637</v>
       </c>
       <c r="C452" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D452">
         <v>2</v>
@@ -9359,7 +9359,7 @@
         <v>28005</v>
       </c>
       <c r="C453" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D453">
         <v>2</v>
@@ -9377,7 +9377,7 @@
         <v>29341</v>
       </c>
       <c r="C454" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D454">
         <v>2</v>
@@ -9395,7 +9395,7 @@
         <v>30421</v>
       </c>
       <c r="C455" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -9413,7 +9413,7 @@
         <v>32141</v>
       </c>
       <c r="C456" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D456">
         <v>2</v>
@@ -9431,7 +9431,7 @@
         <v>33603</v>
       </c>
       <c r="C457" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D457">
         <v>2</v>
@@ -9449,7 +9449,7 @@
         <v>1507</v>
       </c>
       <c r="C458" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -9467,7 +9467,7 @@
         <v>2054</v>
       </c>
       <c r="C459" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>2290</v>
       </c>
       <c r="C460" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -9503,7 +9503,7 @@
         <v>2290</v>
       </c>
       <c r="C461" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -9521,7 +9521,7 @@
         <v>2290</v>
       </c>
       <c r="C462" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -9539,7 +9539,7 @@
         <v>2573</v>
       </c>
       <c r="C463" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -9557,7 +9557,7 @@
         <v>2941</v>
       </c>
       <c r="C464" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -9575,7 +9575,7 @@
         <v>3337</v>
       </c>
       <c r="C465" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -9593,7 +9593,7 @@
         <v>3733</v>
       </c>
       <c r="C466" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -9611,7 +9611,7 @@
         <v>3827</v>
       </c>
       <c r="C467" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>3827</v>
       </c>
       <c r="C468" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>3827</v>
       </c>
       <c r="C469" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -9665,7 +9665,7 @@
         <v>4165</v>
       </c>
       <c r="C470" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -9683,7 +9683,7 @@
         <v>4383</v>
       </c>
       <c r="C471" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         <v>4611</v>
       </c>
       <c r="C472" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -9719,7 +9719,7 @@
         <v>4601</v>
       </c>
       <c r="C473" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -9737,7 +9737,7 @@
         <v>4601</v>
       </c>
       <c r="C474" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -9755,7 +9755,7 @@
         <v>4601</v>
       </c>
       <c r="C475" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -9773,7 +9773,7 @@
         <v>4601</v>
       </c>
       <c r="C476" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -9791,7 +9791,7 @@
         <v>4605</v>
       </c>
       <c r="C477" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -9809,7 +9809,7 @@
         <v>4612</v>
       </c>
       <c r="C478" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -9827,7 +9827,7 @@
         <v>4621</v>
       </c>
       <c r="C479" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>4622</v>
       </c>
       <c r="C480" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -9863,7 +9863,7 @@
         <v>4695</v>
       </c>
       <c r="C481" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D481">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>4695</v>
       </c>
       <c r="C482" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -9899,7 +9899,7 @@
         <v>4695</v>
       </c>
       <c r="C483" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -9917,7 +9917,7 @@
         <v>4863</v>
       </c>
       <c r="C484" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -9935,7 +9935,7 @@
         <v>4867</v>
       </c>
       <c r="C485" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -9953,7 +9953,7 @@
         <v>4873</v>
       </c>
       <c r="C486" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -9971,7 +9971,7 @@
         <v>5233</v>
       </c>
       <c r="C487" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -9989,7 +9989,7 @@
         <v>5420</v>
       </c>
       <c r="C488" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -10007,7 +10007,7 @@
         <v>5420</v>
       </c>
       <c r="C489" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -10025,7 +10025,7 @@
         <v>5421</v>
       </c>
       <c r="C490" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -10043,7 +10043,7 @@
         <v>5684</v>
       </c>
       <c r="C491" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -10061,7 +10061,7 @@
         <v>5899</v>
       </c>
       <c r="C492" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>6204</v>
       </c>
       <c r="C493" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -10097,7 +10097,7 @@
         <v>6767</v>
       </c>
       <c r="C494" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -10115,7 +10115,7 @@
         <v>7222</v>
       </c>
       <c r="C495" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="C496" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D496">
         <v>2</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D497">
         <v>2</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="C498" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D498">
         <v>2</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="C499" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D499">
         <v>2</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="C500" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D500">
         <v>2</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D501">
         <v>2</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="C502" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D502">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D503">
         <v>2</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D504">
         <v>2</v>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D505">
         <v>2</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="C506" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D506">
         <v>2</v>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="C507" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D507">
         <v>2</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="C508" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D508">
         <v>2</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="C509" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D509">
         <v>2</v>
@@ -10385,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="C510" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D510">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>66</v>
       </c>
       <c r="C511" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D511">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>85</v>
       </c>
       <c r="C512" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D512">
         <v>2</v>
@@ -10439,7 +10439,7 @@
         <v>85</v>
       </c>
       <c r="C513" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D513">
         <v>2</v>
@@ -10457,7 +10457,7 @@
         <v>85</v>
       </c>
       <c r="C514" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D514">
         <v>2</v>
@@ -10475,7 +10475,7 @@
         <v>519</v>
       </c>
       <c r="C515" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D515">
         <v>2</v>
@@ -10493,7 +10493,7 @@
         <v>991</v>
       </c>
       <c r="C516" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D516">
         <v>2</v>
@@ -10511,7 +10511,7 @@
         <v>1469</v>
       </c>
       <c r="C517" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D517">
         <v>2</v>
@@ -10529,7 +10529,7 @@
         <v>2010</v>
       </c>
       <c r="C518" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D518">
         <v>2</v>
@@ -10547,7 +10547,7 @@
         <v>2234</v>
       </c>
       <c r="C519" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D519">
         <v>2</v>
@@ -10565,7 +10565,7 @@
         <v>2234</v>
       </c>
       <c r="C520" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D520">
         <v>2</v>
@@ -10583,7 +10583,7 @@
         <v>2234</v>
       </c>
       <c r="C521" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D521">
         <v>2</v>
@@ -10601,7 +10601,7 @@
         <v>2528</v>
       </c>
       <c r="C522" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D522">
         <v>2</v>
@@ -10619,13 +10619,13 @@
         <v>2894</v>
       </c>
       <c r="C523" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D523">
         <v>2</v>
       </c>
       <c r="F523">
-        <f t="shared" ref="F523:F586" si="13">B523/$E$8*100</f>
+        <f t="shared" ref="F523:F533" si="13">B523/$E$8*100</f>
         <v>5.0849542283836735</v>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
         <v>3295</v>
       </c>
       <c r="C524" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D524">
         <v>2</v>
@@ -10655,7 +10655,7 @@
         <v>3682</v>
       </c>
       <c r="C525" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D525">
         <v>2</v>
@@ -10673,7 +10673,7 @@
         <v>3774</v>
       </c>
       <c r="C526" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D526">
         <v>2</v>
@@ -10691,7 +10691,7 @@
         <v>3774</v>
       </c>
       <c r="C527" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D527">
         <v>2</v>
@@ -10709,7 +10709,7 @@
         <v>3774</v>
       </c>
       <c r="C528" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D528">
         <v>2</v>
@@ -10727,7 +10727,7 @@
         <v>4115</v>
       </c>
       <c r="C529" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D529">
         <v>2</v>
@@ -10745,7 +10745,7 @@
         <v>4325</v>
       </c>
       <c r="C530" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D530">
         <v>2</v>
@@ -10763,7 +10763,7 @@
         <v>4535</v>
       </c>
       <c r="C531" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D531">
         <v>2</v>
@@ -10781,7 +10781,7 @@
         <v>4541</v>
       </c>
       <c r="C532" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D532">
         <v>2</v>
@@ -10799,7 +10799,7 @@
         <v>4541</v>
       </c>
       <c r="C533" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D533">
         <v>2</v>
@@ -10817,7 +10817,7 @@
         <v>3101</v>
       </c>
       <c r="C534" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -10835,7 +10835,7 @@
         <v>4332</v>
       </c>
       <c r="C535" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>4864</v>
       </c>
       <c r="C536" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -10871,7 +10871,7 @@
         <v>4864</v>
       </c>
       <c r="C537" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D537">
         <v>1</v>
@@ -10889,7 +10889,7 @@
         <v>4864</v>
       </c>
       <c r="C538" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D538">
         <v>1</v>
@@ -10907,7 +10907,7 @@
         <v>5981</v>
       </c>
       <c r="C539" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -10925,7 +10925,7 @@
         <v>8385</v>
       </c>
       <c r="C540" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>10741</v>
       </c>
       <c r="C541" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D541">
         <v>1</v>
@@ -10961,7 +10961,7 @@
         <v>10801</v>
       </c>
       <c r="C542" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -10979,7 +10979,7 @@
         <v>12197</v>
       </c>
       <c r="C543" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -10997,7 +10997,7 @@
         <v>12209</v>
       </c>
       <c r="C544" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D544">
         <v>1</v>
@@ -11015,7 +11015,7 @@
         <v>12209</v>
       </c>
       <c r="C545" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D545">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>12865</v>
       </c>
       <c r="C546" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D546">
         <v>1</v>
@@ -11051,7 +11051,7 @@
         <v>14489</v>
       </c>
       <c r="C547" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -11069,7 +11069,7 @@
         <v>15958</v>
       </c>
       <c r="C548" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -11087,7 +11087,7 @@
         <v>17006</v>
       </c>
       <c r="C549" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D549">
         <v>1</v>
@@ -11105,7 +11105,7 @@
         <v>17279</v>
       </c>
       <c r="C550" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D550">
         <v>1</v>
@@ -11123,7 +11123,7 @@
         <v>17279</v>
       </c>
       <c r="C551" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D551">
         <v>1</v>
@@ -11141,7 +11141,7 @@
         <v>17279</v>
       </c>
       <c r="C552" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -11159,7 +11159,7 @@
         <v>17884</v>
       </c>
       <c r="C553" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -11177,7 +11177,7 @@
         <v>19639</v>
       </c>
       <c r="C554" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -11195,7 +11195,7 @@
         <v>21017</v>
       </c>
       <c r="C555" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>21833</v>
       </c>
       <c r="C556" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -11231,7 +11231,7 @@
         <v>22212</v>
       </c>
       <c r="C557" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>22212</v>
       </c>
       <c r="C558" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D558">
         <v>1</v>
@@ -11267,7 +11267,7 @@
         <v>22212</v>
       </c>
       <c r="C559" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>22451</v>
       </c>
       <c r="C560" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -11303,7 +11303,7 @@
         <v>22936</v>
       </c>
       <c r="C561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D561">
         <v>1</v>
@@ -11321,7 +11321,7 @@
         <v>23325</v>
       </c>
       <c r="C562" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -11339,7 +11339,7 @@
         <v>24690</v>
       </c>
       <c r="C563" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -11357,7 +11357,7 @@
         <v>24867</v>
       </c>
       <c r="C564" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D564">
         <v>1</v>
@@ -11375,7 +11375,7 @@
         <v>24874</v>
       </c>
       <c r="C565" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D565">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>24874</v>
       </c>
       <c r="C566" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D566">
         <v>1</v>
@@ -11411,7 +11411,7 @@
         <v>25248</v>
       </c>
       <c r="C567" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D567">
         <v>1</v>
@@ -11429,7 +11429,7 @@
         <v>26841</v>
       </c>
       <c r="C568" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D568">
         <v>1</v>
@@ -11447,7 +11447,7 @@
         <v>27988</v>
       </c>
       <c r="C569" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D569">
         <v>1</v>
@@ -11465,7 +11465,7 @@
         <v>29263</v>
       </c>
       <c r="C570" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D570">
         <v>1</v>
@@ -11483,7 +11483,7 @@
         <v>29765</v>
       </c>
       <c r="C571" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="C572" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D572">
         <v>2</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="C573" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D573">
         <v>2</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="C574" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D574">
         <v>2</v>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D575">
         <v>2</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D576">
         <v>2</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="C577" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D577">
         <v>2</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="C578" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D578">
         <v>2</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="C579" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D579">
         <v>2</v>
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D580">
         <v>2</v>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D581">
         <v>2</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="C582" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D582">
         <v>2</v>
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D583">
         <v>2</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="C584" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D584">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="C585" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D585">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D586">
         <v>2</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="C587" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D587">
         <v>2</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="C588" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D588">
         <v>2</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="C589" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D589">
         <v>2</v>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="C590" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D590">
         <v>2</v>
@@ -11843,7 +11843,7 @@
         <v>530</v>
       </c>
       <c r="C591" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D591">
         <v>2</v>
@@ -11861,7 +11861,7 @@
         <v>1802</v>
       </c>
       <c r="C592" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D592">
         <v>2</v>
@@ -11879,7 +11879,7 @@
         <v>2942</v>
       </c>
       <c r="C593" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D593">
         <v>2</v>
@@ -11897,7 +11897,7 @@
         <v>4140</v>
       </c>
       <c r="C594" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D594">
         <v>2</v>
@@ -11915,7 +11915,7 @@
         <v>4643</v>
       </c>
       <c r="C595" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D595">
         <v>2</v>
@@ -11933,7 +11933,7 @@
         <v>4643</v>
       </c>
       <c r="C596" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D596">
         <v>2</v>
@@ -11951,7 +11951,7 @@
         <v>4643</v>
       </c>
       <c r="C597" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D597">
         <v>2</v>
@@ -11969,7 +11969,7 @@
         <v>5900</v>
       </c>
       <c r="C598" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D598">
         <v>2</v>
@@ -11987,13 +11987,13 @@
         <v>8233</v>
       </c>
       <c r="C599" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D599">
         <v>2</v>
       </c>
       <c r="F599">
-        <f t="shared" ref="F599:F662" si="15">B599/$E$9*100</f>
+        <f t="shared" ref="F599:F609" si="15">B599/$E$9*100</f>
         <v>0.9675751272197346</v>
       </c>
     </row>
@@ -12005,7 +12005,7 @@
         <v>10539</v>
       </c>
       <c r="C600" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D600">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>10620</v>
       </c>
       <c r="C601" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D601">
         <v>2</v>
@@ -12041,7 +12041,7 @@
         <v>12029</v>
       </c>
       <c r="C602" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D602">
         <v>2</v>
@@ -12059,7 +12059,7 @@
         <v>12041</v>
       </c>
       <c r="C603" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D603">
         <v>2</v>
@@ -12077,7 +12077,7 @@
         <v>12041</v>
       </c>
       <c r="C604" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D604">
         <v>2</v>
@@ -12095,7 +12095,7 @@
         <v>12921</v>
       </c>
       <c r="C605" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D605">
         <v>2</v>
@@ -12113,7 +12113,7 @@
         <v>14049</v>
       </c>
       <c r="C606" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D606">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>15565</v>
       </c>
       <c r="C607" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D607">
         <v>2</v>
@@ -12149,7 +12149,7 @@
         <v>16850</v>
       </c>
       <c r="C608" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D608">
         <v>2</v>
@@ -12167,7 +12167,7 @@
         <v>17160</v>
       </c>
       <c r="C609" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D609">
         <v>2</v>
@@ -12185,7 +12185,7 @@
         <v>2752</v>
       </c>
       <c r="C610" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D610">
         <v>1</v>
@@ -12203,7 +12203,7 @@
         <v>3740</v>
       </c>
       <c r="C611" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D611">
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>4312</v>
       </c>
       <c r="C612" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -12239,7 +12239,7 @@
         <v>4312</v>
       </c>
       <c r="C613" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D613">
         <v>1</v>
@@ -12257,7 +12257,7 @@
         <v>4312</v>
       </c>
       <c r="C614" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D614">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>4411</v>
       </c>
       <c r="C615" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D615">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>5365</v>
       </c>
       <c r="C616" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D616">
         <v>1</v>
@@ -12311,7 +12311,7 @@
         <v>6258</v>
       </c>
       <c r="C617" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D617">
         <v>1</v>
@@ -12329,7 +12329,7 @@
         <v>7126</v>
       </c>
       <c r="C618" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D618">
         <v>1</v>
@@ -12347,7 +12347,7 @@
         <v>7733</v>
       </c>
       <c r="C619" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D619">
         <v>1</v>
@@ -12365,7 +12365,7 @@
         <v>7963</v>
       </c>
       <c r="C620" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D620">
         <v>1</v>
@@ -12383,7 +12383,7 @@
         <v>7963</v>
       </c>
       <c r="C621" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D621">
         <v>1</v>
@@ -12401,7 +12401,7 @@
         <v>8251</v>
       </c>
       <c r="C622" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D622">
         <v>1</v>
@@ -12419,7 +12419,7 @@
         <v>9120</v>
       </c>
       <c r="C623" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D623">
         <v>1</v>
@@ -12437,7 +12437,7 @@
         <v>9954</v>
       </c>
       <c r="C624" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>10543</v>
       </c>
       <c r="C625" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D625">
         <v>1</v>
@@ -12473,7 +12473,7 @@
         <v>10716</v>
       </c>
       <c r="C626" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D626">
         <v>1</v>
@@ -12491,7 +12491,7 @@
         <v>10716</v>
       </c>
       <c r="C627" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D627">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>10716</v>
       </c>
       <c r="C628" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D628">
         <v>1</v>
@@ -12527,7 +12527,7 @@
         <v>10727</v>
       </c>
       <c r="C629" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D629">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>10875</v>
       </c>
       <c r="C630" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D630">
         <v>1</v>
@@ -12563,7 +12563,7 @@
         <v>11094</v>
       </c>
       <c r="C631" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D631">
         <v>1</v>
@@ -12581,7 +12581,7 @@
         <v>11248</v>
       </c>
       <c r="C632" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -12599,7 +12599,7 @@
         <v>11381</v>
       </c>
       <c r="C633" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D633">
         <v>1</v>
@@ -12617,7 +12617,7 @@
         <v>11672</v>
       </c>
       <c r="C634" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D634">
         <v>1</v>
@@ -12635,7 +12635,7 @@
         <v>11963</v>
       </c>
       <c r="C635" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D635">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>11858</v>
       </c>
       <c r="C636" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D636">
         <v>1</v>
@@ -12671,7 +12671,7 @@
         <v>12184</v>
       </c>
       <c r="C637" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>12906</v>
       </c>
       <c r="C638" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D638">
         <v>1</v>
@@ -12707,7 +12707,7 @@
         <v>13758</v>
       </c>
       <c r="C639" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D639">
         <v>1</v>
@@ -12725,7 +12725,7 @@
         <v>14525</v>
       </c>
       <c r="C640" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D640">
         <v>1</v>
@@ -12743,7 +12743,7 @@
         <v>14633</v>
       </c>
       <c r="C641" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D641">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>14633</v>
       </c>
       <c r="C642" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D642">
         <v>1</v>
@@ -12779,7 +12779,7 @@
         <v>14885</v>
       </c>
       <c r="C643" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D643">
         <v>1</v>
@@ -12797,7 +12797,7 @@
         <v>15117</v>
       </c>
       <c r="C644" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D644">
         <v>1</v>
@@ -12815,7 +12815,7 @@
         <v>15731</v>
       </c>
       <c r="C645" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D645">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>16241</v>
       </c>
       <c r="C646" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D646">
         <v>1</v>
@@ -12851,7 +12851,7 @@
         <v>16566</v>
       </c>
       <c r="C647" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D647">
         <v>1</v>
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D648">
         <v>2</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D649">
         <v>2</v>
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D650">
         <v>2</v>
@@ -12923,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="C651" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D651">
         <v>2</v>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="C652" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D652">
         <v>2</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="C653" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D653">
         <v>2</v>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D654">
         <v>2</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="C655" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D655">
         <v>2</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="C656" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D656">
         <v>2</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="C657" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D657">
         <v>2</v>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D658">
         <v>2</v>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="C659" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D659">
         <v>2</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="C660" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D660">
         <v>2</v>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="C661" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D661">
         <v>2</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="C662" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D662">
         <v>2</v>
@@ -13139,7 +13139,7 @@
         <v>30</v>
       </c>
       <c r="C663" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D663">
         <v>2</v>
@@ -13157,7 +13157,7 @@
         <v>187</v>
       </c>
       <c r="C664" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D664">
         <v>2</v>
@@ -13175,7 +13175,7 @@
         <v>187</v>
       </c>
       <c r="C665" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D665">
         <v>2</v>
@@ -13193,7 +13193,7 @@
         <v>187</v>
       </c>
       <c r="C666" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D666">
         <v>2</v>
@@ -13211,7 +13211,7 @@
         <v>367</v>
       </c>
       <c r="C667" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D667">
         <v>2</v>
@@ -13229,7 +13229,7 @@
         <v>1443</v>
       </c>
       <c r="C668" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D668">
         <v>2</v>
@@ -13247,7 +13247,7 @@
         <v>2545</v>
       </c>
       <c r="C669" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D669">
         <v>2</v>
@@ -13265,7 +13265,7 @@
         <v>3544</v>
       </c>
       <c r="C670" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D670">
         <v>2</v>
@@ -13283,7 +13283,7 @@
         <v>4103</v>
       </c>
       <c r="C671" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D671">
         <v>2</v>
@@ -13301,7 +13301,7 @@
         <v>4103</v>
       </c>
       <c r="C672" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D672">
         <v>2</v>
@@ -13319,7 +13319,7 @@
         <v>4103</v>
       </c>
       <c r="C673" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D673">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>4212</v>
       </c>
       <c r="C674" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D674">
         <v>2</v>
@@ -13355,13 +13355,13 @@
         <v>5127</v>
       </c>
       <c r="C675" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D675">
         <v>2</v>
       </c>
       <c r="F675">
-        <f t="shared" ref="F675:F738" si="17">B675/$E$10*100</f>
+        <f t="shared" ref="F675:F685" si="17">B675/$E$10*100</f>
         <v>0.73064267198319544</v>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
         <v>6024</v>
       </c>
       <c r="C676" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D676">
         <v>2</v>
@@ -13391,7 +13391,7 @@
         <v>6857</v>
       </c>
       <c r="C677" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D677">
         <v>2</v>
@@ -13409,7 +13409,7 @@
         <v>7484</v>
       </c>
       <c r="C678" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D678">
         <v>2</v>
@@ -13427,7 +13427,7 @@
         <v>7712</v>
       </c>
       <c r="C679" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D679">
         <v>2</v>
@@ -13445,7 +13445,7 @@
         <v>7712</v>
       </c>
       <c r="C680" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D680">
         <v>2</v>
@@ -13463,7 +13463,7 @@
         <v>8027</v>
       </c>
       <c r="C681" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D681">
         <v>2</v>
@@ -13481,7 +13481,7 @@
         <v>8868</v>
       </c>
       <c r="C682" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D682">
         <v>2</v>
@@ -13499,7 +13499,7 @@
         <v>9663</v>
       </c>
       <c r="C683" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D683">
         <v>2</v>
@@ -13517,7 +13517,7 @@
         <v>10230</v>
       </c>
       <c r="C684" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D684">
         <v>2</v>
@@ -13535,7 +13535,7 @@
         <v>10419</v>
       </c>
       <c r="C685" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D685">
         <v>2</v>
@@ -13553,7 +13553,7 @@
         <v>7725</v>
       </c>
       <c r="C686" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -13571,7 +13571,7 @@
         <v>10941</v>
       </c>
       <c r="C687" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D687">
         <v>1</v>
@@ -13589,7 +13589,7 @@
         <v>11680</v>
       </c>
       <c r="C688" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>11680</v>
       </c>
       <c r="C689" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D689">
         <v>1</v>
@@ -13625,7 +13625,7 @@
         <v>11927</v>
       </c>
       <c r="C690" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D690">
         <v>1</v>
@@ -13643,7 +13643,7 @@
         <v>13149</v>
       </c>
       <c r="C691" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D691">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>14185</v>
       </c>
       <c r="C692" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -13679,7 +13679,7 @@
         <v>14982</v>
       </c>
       <c r="C693" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -13697,7 +13697,7 @@
         <v>15339</v>
       </c>
       <c r="C694" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -13715,7 +13715,7 @@
         <v>15339</v>
       </c>
       <c r="C695" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -13733,7 +13733,7 @@
         <v>15339</v>
       </c>
       <c r="C696" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -13751,7 +13751,7 @@
         <v>15411</v>
       </c>
       <c r="C697" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -13769,7 +13769,7 @@
         <v>15877</v>
       </c>
       <c r="C698" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -13787,7 +13787,7 @@
         <v>16541</v>
       </c>
       <c r="C699" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D699">
         <v>1</v>
@@ -13805,7 +13805,7 @@
         <v>17904</v>
       </c>
       <c r="C700" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -13823,7 +13823,7 @@
         <v>18617</v>
       </c>
       <c r="C701" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -13841,7 +13841,7 @@
         <v>18617</v>
       </c>
       <c r="C702" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -13859,7 +13859,7 @@
         <v>18977</v>
       </c>
       <c r="C703" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -13877,7 +13877,7 @@
         <v>19339</v>
       </c>
       <c r="C704" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>19716</v>
       </c>
       <c r="C705" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D705">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>19734</v>
       </c>
       <c r="C706" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -13931,7 +13931,7 @@
         <v>19755</v>
       </c>
       <c r="C707" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -13949,7 +13949,7 @@
         <v>19802</v>
       </c>
       <c r="C708" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -13967,7 +13967,7 @@
         <v>19812</v>
       </c>
       <c r="C709" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -13985,7 +13985,7 @@
         <v>19812</v>
       </c>
       <c r="C710" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D710">
         <v>1</v>
@@ -14003,7 +14003,7 @@
         <v>19815</v>
       </c>
       <c r="C711" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -14021,7 +14021,7 @@
         <v>20873</v>
       </c>
       <c r="C712" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D712">
         <v>1</v>
@@ -14039,7 +14039,7 @@
         <v>21589</v>
       </c>
       <c r="C713" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D713">
         <v>1</v>
@@ -14057,7 +14057,7 @@
         <v>22149</v>
       </c>
       <c r="C714" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>22596</v>
       </c>
       <c r="C715" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -14093,7 +14093,7 @@
         <v>22680</v>
       </c>
       <c r="C716" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -14111,7 +14111,7 @@
         <v>22680</v>
       </c>
       <c r="C717" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -14129,7 +14129,7 @@
         <v>22717</v>
       </c>
       <c r="C718" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D718">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>23470</v>
       </c>
       <c r="C719" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -14165,7 +14165,7 @@
         <v>24537</v>
       </c>
       <c r="C720" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -14183,7 +14183,7 @@
         <v>24882</v>
       </c>
       <c r="C721" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -14201,7 +14201,7 @@
         <v>25293</v>
       </c>
       <c r="C722" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -14219,7 +14219,7 @@
         <v>25293</v>
       </c>
       <c r="C723" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D723">
         <v>1</v>
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="C724" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D724">
         <v>2</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="C725" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D725">
         <v>2</v>
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="C726" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D726">
         <v>2</v>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="C727" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D727">
         <v>2</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="C728" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D728">
         <v>2</v>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="C729" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D729">
         <v>2</v>
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D730">
         <v>2</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="C731" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D731">
         <v>2</v>
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="C732" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D732">
         <v>2</v>
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="C733" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D733">
         <v>2</v>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="C734" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D734">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="C735" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D735">
         <v>2</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="C736" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D736">
         <v>2</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="C737" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D737">
         <v>2</v>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="C738" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D738">
         <v>2</v>
@@ -14507,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="C739" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D739">
         <v>2</v>
@@ -14525,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="C740" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D740">
         <v>2</v>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="C741" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D741">
         <v>2</v>
@@ -14561,7 +14561,7 @@
         <v>148</v>
       </c>
       <c r="C742" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D742">
         <v>2</v>
@@ -14579,7 +14579,7 @@
         <v>1879</v>
       </c>
       <c r="C743" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D743">
         <v>2</v>
@@ -14597,7 +14597,7 @@
         <v>4647</v>
       </c>
       <c r="C744" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D744">
         <v>2</v>
@@ -14615,7 +14615,7 @@
         <v>7922</v>
       </c>
       <c r="C745" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D745">
         <v>2</v>
@@ -14633,7 +14633,7 @@
         <v>10726</v>
       </c>
       <c r="C746" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D746">
         <v>2</v>
@@ -14651,7 +14651,7 @@
         <v>11411</v>
       </c>
       <c r="C747" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D747">
         <v>2</v>
@@ -14669,7 +14669,7 @@
         <v>11411</v>
       </c>
       <c r="C748" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D748">
         <v>2</v>
@@ -14687,7 +14687,7 @@
         <v>11604</v>
       </c>
       <c r="C749" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D749">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>13438</v>
       </c>
       <c r="C750" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D750">
         <v>2</v>
@@ -14723,13 +14723,13 @@
         <v>14457</v>
       </c>
       <c r="C751" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D751">
         <v>2</v>
       </c>
       <c r="F751">
-        <f t="shared" ref="F751:F814" si="19">B751/$E$11*100</f>
+        <f t="shared" ref="F751:F761" si="19">B751/$E$11*100</f>
         <v>1.1684567593409054</v>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
         <v>15234</v>
       </c>
       <c r="C752" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D752">
         <v>2</v>
@@ -14759,7 +14759,7 @@
         <v>15618</v>
       </c>
       <c r="C753" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D753">
         <v>2</v>
@@ -14777,7 +14777,7 @@
         <v>15618</v>
       </c>
       <c r="C754" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D754">
         <v>2</v>
@@ -14795,7 +14795,7 @@
         <v>15618</v>
       </c>
       <c r="C755" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D755">
         <v>2</v>
@@ -14813,7 +14813,7 @@
         <v>15703</v>
       </c>
       <c r="C756" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D756">
         <v>2</v>
@@ -14831,7 +14831,7 @@
         <v>16192</v>
       </c>
       <c r="C757" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D757">
         <v>2</v>
@@ -14849,7 +14849,7 @@
         <v>16850</v>
       </c>
       <c r="C758" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D758">
         <v>2</v>
@@ -14867,7 +14867,7 @@
         <v>18233</v>
       </c>
       <c r="C759" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D759">
         <v>2</v>
@@ -14885,7 +14885,7 @@
         <v>18951</v>
       </c>
       <c r="C760" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D760">
         <v>2</v>
@@ -14903,7 +14903,7 @@
         <v>18951</v>
       </c>
       <c r="C761" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D761">
         <v>2</v>
@@ -14921,7 +14921,7 @@
         <v>4566</v>
       </c>
       <c r="C762" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D762">
         <v>1</v>
@@ -14939,7 +14939,7 @@
         <v>4570</v>
       </c>
       <c r="C763" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D763">
         <v>1</v>
@@ -14957,7 +14957,7 @@
         <v>4572</v>
       </c>
       <c r="C764" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D764">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>4675</v>
       </c>
       <c r="C765" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D765">
         <v>1</v>
@@ -14993,7 +14993,7 @@
         <v>6932</v>
       </c>
       <c r="C766" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>9081</v>
       </c>
       <c r="C767" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -15029,7 +15029,7 @@
         <v>11261</v>
       </c>
       <c r="C768" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D768">
         <v>1</v>
@@ -15047,7 +15047,7 @@
         <v>13070</v>
       </c>
       <c r="C769" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D769">
         <v>1</v>
@@ -15065,7 +15065,7 @@
         <v>13070</v>
       </c>
       <c r="C770" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -15083,7 +15083,7 @@
         <v>13070</v>
       </c>
       <c r="C771" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -15101,7 +15101,7 @@
         <v>13070</v>
       </c>
       <c r="C772" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D772">
         <v>1</v>
@@ -15119,7 +15119,7 @@
         <v>14137</v>
       </c>
       <c r="C773" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D773">
         <v>1</v>
@@ -15137,7 +15137,7 @@
         <v>14949</v>
       </c>
       <c r="C774" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -15155,7 +15155,7 @@
         <v>15725</v>
       </c>
       <c r="C775" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D775">
         <v>1</v>
@@ -15173,7 +15173,7 @@
         <v>15726</v>
       </c>
       <c r="C776" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D776">
         <v>1</v>
@@ -15191,7 +15191,7 @@
         <v>15726</v>
       </c>
       <c r="C777" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D777">
         <v>1</v>
@@ -15209,7 +15209,7 @@
         <v>15726</v>
       </c>
       <c r="C778" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D778">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>15726</v>
       </c>
       <c r="C779" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D779">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>17377</v>
       </c>
       <c r="C780" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D780">
         <v>1</v>
@@ -15263,7 +15263,7 @@
         <v>19090</v>
       </c>
       <c r="C781" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D781">
         <v>1</v>
@@ -15281,7 +15281,7 @@
         <v>19698</v>
       </c>
       <c r="C782" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -15299,7 +15299,7 @@
         <v>20055</v>
       </c>
       <c r="C783" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D783">
         <v>1</v>
@@ -15317,7 +15317,7 @@
         <v>20503</v>
       </c>
       <c r="C784" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D784">
         <v>1</v>
@@ -15335,7 +15335,7 @@
         <v>20503</v>
       </c>
       <c r="C785" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D785">
         <v>1</v>
@@ -15353,7 +15353,7 @@
         <v>20503</v>
       </c>
       <c r="C786" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D786">
         <v>1</v>
@@ -15371,7 +15371,7 @@
         <v>21403</v>
       </c>
       <c r="C787" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D787">
         <v>1</v>
@@ -15389,7 +15389,7 @@
         <v>22622</v>
       </c>
       <c r="C788" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D788">
         <v>1</v>
@@ -15407,7 +15407,7 @@
         <v>23304</v>
       </c>
       <c r="C789" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -15425,7 +15425,7 @@
         <v>23887</v>
       </c>
       <c r="C790" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D790">
         <v>1</v>
@@ -15443,7 +15443,7 @@
         <v>24516</v>
       </c>
       <c r="C791" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D791">
         <v>1</v>
@@ -15461,7 +15461,7 @@
         <v>24516</v>
       </c>
       <c r="C792" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D792">
         <v>1</v>
@@ -15479,7 +15479,7 @@
         <v>24516</v>
       </c>
       <c r="C793" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D793">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>25167</v>
       </c>
       <c r="C794" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D794">
         <v>1</v>
@@ -15515,7 +15515,7 @@
         <v>25828</v>
       </c>
       <c r="C795" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D795">
         <v>1</v>
@@ -15533,7 +15533,7 @@
         <v>26180</v>
       </c>
       <c r="C796" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D796">
         <v>1</v>
@@ -15551,7 +15551,7 @@
         <v>26428</v>
       </c>
       <c r="C797" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D797">
         <v>1</v>
@@ -15569,7 +15569,7 @@
         <v>26557</v>
       </c>
       <c r="C798" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -15587,7 +15587,7 @@
         <v>26557</v>
       </c>
       <c r="C799" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D799">
         <v>1</v>
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="C800" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D800">
         <v>2</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="C801" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D801">
         <v>2</v>
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="C802" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D802">
         <v>2</v>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="C803" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D803">
         <v>2</v>
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="C804" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D804">
         <v>2</v>
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="C805" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D805">
         <v>2</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="C806" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D806">
         <v>2</v>
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="C807" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D807">
         <v>2</v>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="C808" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D808">
         <v>2</v>
@@ -15767,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="C809" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D809">
         <v>2</v>
@@ -15785,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="C810" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D810">
         <v>2</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="C811" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D811">
         <v>2</v>
@@ -15821,7 +15821,7 @@
         <v>0</v>
       </c>
       <c r="C812" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D812">
         <v>2</v>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="C813" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D813">
         <v>2</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="C814" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D814">
         <v>2</v>
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="C815" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D815">
         <v>2</v>
@@ -15893,7 +15893,7 @@
         <v>6</v>
       </c>
       <c r="C816" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D816">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>6</v>
       </c>
       <c r="C817" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D817">
         <v>2</v>
@@ -15929,7 +15929,7 @@
         <v>432</v>
       </c>
       <c r="C818" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D818">
         <v>2</v>
@@ -15947,7 +15947,7 @@
         <v>442</v>
       </c>
       <c r="C819" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D819">
         <v>2</v>
@@ -15965,7 +15965,7 @@
         <v>2406</v>
       </c>
       <c r="C820" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D820">
         <v>2</v>
@@ -15983,7 +15983,7 @@
         <v>4601</v>
       </c>
       <c r="C821" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D821">
         <v>2</v>
@@ -16001,7 +16001,7 @@
         <v>4649</v>
       </c>
       <c r="C822" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D822">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>4649</v>
       </c>
       <c r="C823" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D823">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>4649</v>
       </c>
       <c r="C824" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D824">
         <v>2</v>
@@ -16055,7 +16055,7 @@
         <v>6809</v>
       </c>
       <c r="C825" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D825">
         <v>2</v>
@@ -16073,7 +16073,7 @@
         <v>8984</v>
       </c>
       <c r="C826" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D826">
         <v>2</v>
@@ -16091,13 +16091,13 @@
         <v>11219</v>
       </c>
       <c r="C827" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D827">
         <v>2</v>
       </c>
       <c r="F827">
-        <f t="shared" ref="F827:F890" si="21">B827/$E$12*100</f>
+        <f t="shared" ref="F827:F837" si="21">B827/$E$12*100</f>
         <v>1.3326807921248411</v>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
         <v>13039</v>
       </c>
       <c r="C828" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D828">
         <v>2</v>
@@ -16127,7 +16127,7 @@
         <v>13237</v>
       </c>
       <c r="C829" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D829">
         <v>2</v>
@@ -16145,7 +16145,7 @@
         <v>13237</v>
       </c>
       <c r="C830" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D830">
         <v>2</v>
@@ -16163,7 +16163,7 @@
         <v>13237</v>
       </c>
       <c r="C831" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D831">
         <v>2</v>
@@ -16181,7 +16181,7 @@
         <v>14224</v>
       </c>
       <c r="C832" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D832">
         <v>2</v>
@@ -16199,7 +16199,7 @@
         <v>14987</v>
       </c>
       <c r="C833" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D833">
         <v>2</v>
@@ -16217,7 +16217,7 @@
         <v>15787</v>
       </c>
       <c r="C834" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D834">
         <v>2</v>
@@ -16235,7 +16235,7 @@
         <v>15793</v>
       </c>
       <c r="C835" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D835">
         <v>2</v>
@@ -16253,7 +16253,7 @@
         <v>15805</v>
       </c>
       <c r="C836" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D836">
         <v>2</v>
@@ -16271,7 +16271,7 @@
         <v>15805</v>
       </c>
       <c r="C837" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D837">
         <v>2</v>
@@ -16289,7 +16289,7 @@
         <v>7415</v>
       </c>
       <c r="C838" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D838">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>8546</v>
       </c>
       <c r="C839" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D839">
         <v>1</v>
@@ -16325,7 +16325,7 @@
         <v>10599</v>
       </c>
       <c r="C840" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D840">
         <v>1</v>
@@ -16343,7 +16343,7 @@
         <v>13830</v>
       </c>
       <c r="C841" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D841">
         <v>1</v>
@@ -16361,7 +16361,7 @@
         <v>14473</v>
       </c>
       <c r="C842" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D842">
         <v>1</v>
@@ -16379,7 +16379,7 @@
         <v>15521</v>
       </c>
       <c r="C843" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D843">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>16342</v>
       </c>
       <c r="C844" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D844">
         <v>1</v>
@@ -16415,7 +16415,7 @@
         <v>17434</v>
       </c>
       <c r="C845" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D845">
         <v>1</v>
@@ -16433,7 +16433,7 @@
         <v>19314</v>
       </c>
       <c r="C846" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D846">
         <v>1</v>
@@ -16451,7 +16451,7 @@
         <v>21841</v>
       </c>
       <c r="C847" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D847">
         <v>1</v>
@@ -16469,7 +16469,7 @@
         <v>25128</v>
       </c>
       <c r="C848" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D848">
         <v>1</v>
@@ -16487,7 +16487,7 @@
         <v>25325</v>
       </c>
       <c r="C849" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D849">
         <v>1</v>
@@ -16505,7 +16505,7 @@
         <v>25525</v>
       </c>
       <c r="C850" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D850">
         <v>1</v>
@@ -16523,7 +16523,7 @@
         <v>25933</v>
       </c>
       <c r="C851" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D851">
         <v>1</v>
@@ -16541,7 +16541,7 @@
         <v>26574</v>
       </c>
       <c r="C852" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D852">
         <v>1</v>
@@ -16559,7 +16559,7 @@
         <v>27480</v>
       </c>
       <c r="C853" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D853">
         <v>1</v>
@@ -16577,7 +16577,7 @@
         <v>28977</v>
       </c>
       <c r="C854" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D854">
         <v>1</v>
@@ -16595,7 +16595,7 @@
         <v>30320</v>
       </c>
       <c r="C855" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D855">
         <v>1</v>
@@ -16613,7 +16613,7 @@
         <v>33227</v>
       </c>
       <c r="C856" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D856">
         <v>1</v>
@@ -16631,7 +16631,7 @@
         <v>33257</v>
       </c>
       <c r="C857" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D857">
         <v>1</v>
@@ -16649,7 +16649,7 @@
         <v>33317</v>
       </c>
       <c r="C858" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D858">
         <v>1</v>
@@ -16667,7 +16667,7 @@
         <v>33320</v>
       </c>
       <c r="C859" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D859">
         <v>1</v>
@@ -16685,7 +16685,7 @@
         <v>33399</v>
       </c>
       <c r="C860" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D860">
         <v>1</v>
@@ -16703,7 +16703,7 @@
         <v>33457</v>
       </c>
       <c r="C861" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D861">
         <v>1</v>
@@ -16721,7 +16721,7 @@
         <v>33463</v>
       </c>
       <c r="C862" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D862">
         <v>1</v>
@@ -16739,7 +16739,7 @@
         <v>33466</v>
       </c>
       <c r="C863" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D863">
         <v>1</v>
@@ -16757,7 +16757,7 @@
         <v>33571</v>
       </c>
       <c r="C864" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D864">
         <v>1</v>
@@ -16775,7 +16775,7 @@
         <v>33573</v>
       </c>
       <c r="C865" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D865">
         <v>1</v>
@@ -16793,7 +16793,7 @@
         <v>33588</v>
       </c>
       <c r="C866" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D866">
         <v>1</v>
@@ -16811,7 +16811,7 @@
         <v>33693</v>
       </c>
       <c r="C867" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D867">
         <v>1</v>
@@ -16829,7 +16829,7 @@
         <v>34109</v>
       </c>
       <c r="C868" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D868">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>34109</v>
       </c>
       <c r="C869" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D869">
         <v>1</v>
@@ -16865,7 +16865,7 @@
         <v>34758</v>
       </c>
       <c r="C870" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D870">
         <v>1</v>
@@ -16883,7 +16883,7 @@
         <v>34836</v>
       </c>
       <c r="C871" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D871">
         <v>1</v>
@@ -16901,7 +16901,7 @@
         <v>34842</v>
       </c>
       <c r="C872" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D872">
         <v>1</v>
@@ -16919,7 +16919,7 @@
         <v>35174</v>
       </c>
       <c r="C873" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D873">
         <v>1</v>
@@ -16937,7 +16937,7 @@
         <v>35469</v>
       </c>
       <c r="C874" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D874">
         <v>1</v>
@@ -16955,7 +16955,7 @@
         <v>36049</v>
       </c>
       <c r="C875" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D875">
         <v>1</v>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="C876" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D876">
         <v>2</v>
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="C877" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D877">
         <v>2</v>
@@ -17009,7 +17009,7 @@
         <v>0</v>
       </c>
       <c r="C878" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D878">
         <v>2</v>
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="C879" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D879">
         <v>2</v>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="C880" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D880">
         <v>2</v>
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="C881" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D881">
         <v>2</v>
@@ -17081,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="C882" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D882">
         <v>2</v>
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="C883" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D883">
         <v>2</v>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="C884" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D884">
         <v>2</v>
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="C885" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D885">
         <v>2</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="C886" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D886">
         <v>2</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="C887" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D887">
         <v>2</v>
@@ -17189,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="C888" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D888">
         <v>2</v>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="C889" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D889">
         <v>2</v>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="C890" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D890">
         <v>2</v>
@@ -17243,7 +17243,7 @@
         <v>118</v>
       </c>
       <c r="C891" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D891">
         <v>2</v>
@@ -17261,7 +17261,7 @@
         <v>781</v>
       </c>
       <c r="C892" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D892">
         <v>2</v>
@@ -17279,7 +17279,7 @@
         <v>2549</v>
       </c>
       <c r="C893" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D893">
         <v>2</v>
@@ -17297,7 +17297,7 @@
         <v>2644</v>
       </c>
       <c r="C894" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D894">
         <v>2</v>
@@ -17315,7 +17315,7 @@
         <v>3677</v>
       </c>
       <c r="C895" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D895">
         <v>2</v>
@@ -17333,7 +17333,7 @@
         <v>5793</v>
       </c>
       <c r="C896" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D896">
         <v>2</v>
@@ -17351,7 +17351,7 @@
         <v>7162</v>
       </c>
       <c r="C897" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D897">
         <v>2</v>
@@ -17369,7 +17369,7 @@
         <v>8639</v>
       </c>
       <c r="C898" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D898">
         <v>2</v>
@@ -17387,7 +17387,7 @@
         <v>9471</v>
       </c>
       <c r="C899" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D899">
         <v>2</v>
@@ -17405,7 +17405,7 @@
         <v>12283</v>
       </c>
       <c r="C900" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D900">
         <v>2</v>
@@ -17423,7 +17423,7 @@
         <v>12889</v>
       </c>
       <c r="C901" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D901">
         <v>2</v>
@@ -17441,7 +17441,7 @@
         <v>14582</v>
       </c>
       <c r="C902" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D902">
         <v>2</v>
@@ -17459,13 +17459,13 @@
         <v>15627</v>
       </c>
       <c r="C903" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D903">
         <v>2</v>
       </c>
       <c r="F903">
-        <f t="shared" ref="F903:F966" si="23">B903/$E$13*100</f>
+        <f t="shared" ref="F903:F913" si="23">B903/$E$13*100</f>
         <v>1.2649784637153472</v>
       </c>
     </row>
@@ -17477,7 +17477,7 @@
         <v>16550</v>
       </c>
       <c r="C904" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D904">
         <v>2</v>
@@ -17495,7 +17495,7 @@
         <v>18507</v>
       </c>
       <c r="C905" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D905">
         <v>2</v>
@@ -17513,7 +17513,7 @@
         <v>20645</v>
       </c>
       <c r="C906" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D906">
         <v>2</v>
@@ -17531,7 +17531,7 @@
         <v>23502</v>
       </c>
       <c r="C907" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D907">
         <v>2</v>
@@ -17549,7 +17549,7 @@
         <v>23705</v>
       </c>
       <c r="C908" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D908">
         <v>2</v>
@@ -17567,7 +17567,7 @@
         <v>24373</v>
       </c>
       <c r="C909" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D909">
         <v>2</v>
@@ -17585,7 +17585,7 @@
         <v>25032</v>
       </c>
       <c r="C910" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D910">
         <v>2</v>
@@ -17603,7 +17603,7 @@
         <v>25676</v>
       </c>
       <c r="C911" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D911">
         <v>2</v>
@@ -17621,7 +17621,7 @@
         <v>26248</v>
       </c>
       <c r="C912" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D912">
         <v>2</v>
@@ -17639,7 +17639,7 @@
         <v>28110</v>
       </c>
       <c r="C913" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D913">
         <v>2</v>
@@ -17657,7 +17657,7 @@
         <v>6454</v>
       </c>
       <c r="C914" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D914">
         <v>2</v>
@@ -17675,7 +17675,7 @@
         <v>8470</v>
       </c>
       <c r="C915" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D915">
         <v>2</v>
@@ -17693,7 +17693,7 @@
         <v>8802</v>
       </c>
       <c r="C916" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D916">
         <v>2</v>
@@ -17711,7 +17711,7 @@
         <v>9515</v>
       </c>
       <c r="C917" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D917">
         <v>2</v>
@@ -17729,7 +17729,7 @@
         <v>10719</v>
       </c>
       <c r="C918" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D918">
         <v>2</v>
@@ -17747,7 +17747,7 @@
         <v>13746</v>
       </c>
       <c r="C919" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D919">
         <v>2</v>
@@ -17765,7 +17765,7 @@
         <v>15843</v>
       </c>
       <c r="C920" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D920">
         <v>2</v>
@@ -17783,7 +17783,7 @@
         <v>17476</v>
       </c>
       <c r="C921" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D921">
         <v>2</v>
@@ -17801,7 +17801,7 @@
         <v>19559</v>
       </c>
       <c r="C922" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D922">
         <v>2</v>
@@ -17819,7 +17819,7 @@
         <v>20276</v>
       </c>
       <c r="C923" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D923">
         <v>2</v>
@@ -17837,7 +17837,7 @@
         <v>21835</v>
       </c>
       <c r="C924" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D924">
         <v>2</v>
@@ -17855,7 +17855,7 @@
         <v>22965</v>
       </c>
       <c r="C925" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D925">
         <v>2</v>
@@ -17873,7 +17873,7 @@
         <v>24749</v>
       </c>
       <c r="C926" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D926">
         <v>2</v>
@@ -17891,7 +17891,7 @@
         <v>26185</v>
       </c>
       <c r="C927" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D927">
         <v>2</v>
@@ -17909,7 +17909,7 @@
         <v>27131</v>
       </c>
       <c r="C928" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D928">
         <v>2</v>
@@ -17927,7 +17927,7 @@
         <v>28489</v>
       </c>
       <c r="C929" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D929">
         <v>2</v>
@@ -17945,7 +17945,7 @@
         <v>28510</v>
       </c>
       <c r="C930" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D930">
         <v>2</v>
@@ -17963,7 +17963,7 @@
         <v>29238</v>
       </c>
       <c r="C931" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D931">
         <v>2</v>
@@ -17981,7 +17981,7 @@
         <v>29901</v>
       </c>
       <c r="C932" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D932">
         <v>2</v>
@@ -17999,7 +17999,7 @@
         <v>30868</v>
       </c>
       <c r="C933" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D933">
         <v>2</v>
@@ -18017,7 +18017,7 @@
         <v>31451</v>
       </c>
       <c r="C934" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D934">
         <v>2</v>
@@ -18035,7 +18035,7 @@
         <v>32126</v>
       </c>
       <c r="C935" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D935">
         <v>2</v>
@@ -18053,7 +18053,7 @@
         <v>33061</v>
       </c>
       <c r="C936" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D936">
         <v>2</v>
@@ -18071,7 +18071,7 @@
         <v>33553</v>
       </c>
       <c r="C937" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D937">
         <v>2</v>
@@ -18089,7 +18089,7 @@
         <v>34000</v>
       </c>
       <c r="C938" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D938">
         <v>2</v>
@@ -18107,7 +18107,7 @@
         <v>35303</v>
       </c>
       <c r="C939" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D939">
         <v>2</v>
@@ -18125,7 +18125,7 @@
         <v>36391</v>
       </c>
       <c r="C940" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D940">
         <v>2</v>
@@ -18143,7 +18143,7 @@
         <v>36992</v>
       </c>
       <c r="C941" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D941">
         <v>2</v>
@@ -18161,7 +18161,7 @@
         <v>37494</v>
       </c>
       <c r="C942" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D942">
         <v>2</v>
@@ -18179,7 +18179,7 @@
         <v>39624</v>
       </c>
       <c r="C943" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D943">
         <v>2</v>
@@ -18197,7 +18197,7 @@
         <v>40088</v>
       </c>
       <c r="C944" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D944">
         <v>2</v>
@@ -18215,7 +18215,7 @@
         <v>40227</v>
       </c>
       <c r="C945" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D945">
         <v>2</v>
@@ -18233,7 +18233,7 @@
         <v>42214</v>
       </c>
       <c r="C946" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D946">
         <v>2</v>
@@ -18251,7 +18251,7 @@
         <v>43917</v>
       </c>
       <c r="C947" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D947">
         <v>2</v>
@@ -18269,7 +18269,7 @@
         <v>45284</v>
       </c>
       <c r="C948" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D948">
         <v>2</v>
@@ -18287,7 +18287,7 @@
         <v>47250</v>
       </c>
       <c r="C949" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D949">
         <v>2</v>
@@ -18305,7 +18305,7 @@
         <v>49401</v>
       </c>
       <c r="C950" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D950">
         <v>2</v>
@@ -18323,7 +18323,7 @@
         <v>49401</v>
       </c>
       <c r="C951" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D951">
         <v>2</v>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="C952" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D952">
         <v>2</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="C953" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D953">
         <v>2</v>
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="C954" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D954">
         <v>2</v>
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="C955" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D955">
         <v>2</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="C956" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D956">
         <v>2</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="C957" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D957">
         <v>2</v>
@@ -18449,7 +18449,7 @@
         <v>0</v>
       </c>
       <c r="C958" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D958">
         <v>2</v>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="C959" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D959">
         <v>2</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="C960" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D960">
         <v>2</v>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="C961" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D961">
         <v>2</v>
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="C962" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D962">
         <v>2</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="C963" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D963">
         <v>2</v>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="C964" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D964">
         <v>2</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="C965" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D965">
         <v>2</v>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="C966" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D966">
         <v>2</v>
@@ -18611,7 +18611,7 @@
         <v>74</v>
       </c>
       <c r="C967" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D967">
         <v>2</v>
@@ -18629,7 +18629,7 @@
         <v>74</v>
       </c>
       <c r="C968" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D968">
         <v>2</v>
@@ -18647,7 +18647,7 @@
         <v>74</v>
       </c>
       <c r="C969" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D969">
         <v>2</v>
@@ -18665,7 +18665,7 @@
         <v>810</v>
       </c>
       <c r="C970" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D970">
         <v>2</v>
@@ -18683,7 +18683,7 @@
         <v>2609</v>
       </c>
       <c r="C971" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D971">
         <v>2</v>
@@ -18701,7 +18701,7 @@
         <v>3271</v>
       </c>
       <c r="C972" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D972">
         <v>2</v>
@@ -18719,7 +18719,7 @@
         <v>5666</v>
       </c>
       <c r="C973" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D973">
         <v>2</v>
@@ -18737,7 +18737,7 @@
         <v>7955</v>
       </c>
       <c r="C974" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D974">
         <v>2</v>
@@ -18755,7 +18755,7 @@
         <v>8274</v>
       </c>
       <c r="C975" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D975">
         <v>2</v>
@@ -18773,7 +18773,7 @@
         <v>8935</v>
       </c>
       <c r="C976" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D976">
         <v>2</v>
@@ -18791,7 +18791,7 @@
         <v>9991</v>
       </c>
       <c r="C977" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D977">
         <v>2</v>
@@ -18809,7 +18809,7 @@
         <v>12661</v>
       </c>
       <c r="C978" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D978">
         <v>2</v>
@@ -18827,13 +18827,13 @@
         <v>15036</v>
       </c>
       <c r="C979" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D979">
         <v>2</v>
       </c>
       <c r="F979">
-        <f t="shared" ref="F979:F1042" si="25">B979/$E$14*100</f>
+        <f t="shared" ref="F979:F989" si="25">B979/$E$14*100</f>
         <v>0.5295015022967603</v>
       </c>
     </row>
@@ -18845,7 +18845,7 @@
         <v>16497</v>
       </c>
       <c r="C980" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D980">
         <v>2</v>
@@ -18863,7 +18863,7 @@
         <v>18696</v>
       </c>
       <c r="C981" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D981">
         <v>2</v>
@@ -18881,7 +18881,7 @@
         <v>19423</v>
       </c>
       <c r="C982" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D982">
         <v>2</v>
@@ -18899,7 +18899,7 @@
         <v>20974</v>
       </c>
       <c r="C983" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D983">
         <v>2</v>
@@ -18917,7 +18917,7 @@
         <v>22138</v>
       </c>
       <c r="C984" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D984">
         <v>2</v>
@@ -18935,7 +18935,7 @@
         <v>23643</v>
       </c>
       <c r="C985" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D985">
         <v>2</v>
@@ -18953,7 +18953,7 @@
         <v>25155</v>
       </c>
       <c r="C986" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D986">
         <v>2</v>
@@ -18971,7 +18971,7 @@
         <v>26171</v>
       </c>
       <c r="C987" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D987">
         <v>2</v>
@@ -18989,7 +18989,7 @@
         <v>27323</v>
       </c>
       <c r="C988" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D988">
         <v>2</v>
@@ -19007,7 +19007,7 @@
         <v>27323</v>
       </c>
       <c r="C989" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D989">
         <v>2</v>
@@ -19025,7 +19025,7 @@
         <v>1898</v>
       </c>
       <c r="C990" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D990">
         <v>1</v>
@@ -19043,7 +19043,7 @@
         <v>3492</v>
       </c>
       <c r="C991" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D991">
         <v>1</v>
@@ -19061,7 +19061,7 @@
         <v>6229</v>
       </c>
       <c r="C992" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D992">
         <v>1</v>
@@ -19079,7 +19079,7 @@
         <v>9515</v>
       </c>
       <c r="C993" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D993">
         <v>1</v>
@@ -19097,7 +19097,7 @@
         <v>11739</v>
       </c>
       <c r="C994" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D994">
         <v>1</v>
@@ -19115,7 +19115,7 @@
         <v>13474</v>
       </c>
       <c r="C995" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D995">
         <v>1</v>
@@ -19133,7 +19133,7 @@
         <v>16245</v>
       </c>
       <c r="C996" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D996">
         <v>1</v>
@@ -19151,7 +19151,7 @@
         <v>18670</v>
       </c>
       <c r="C997" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D997">
         <v>1</v>
@@ -19169,7 +19169,7 @@
         <v>20411</v>
       </c>
       <c r="C998" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D998">
         <v>1</v>
@@ -19187,7 +19187,7 @@
         <v>21708</v>
       </c>
       <c r="C999" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D999">
         <v>1</v>
@@ -19205,7 +19205,7 @@
         <v>24042</v>
       </c>
       <c r="C1000" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1000">
         <v>1</v>
@@ -19223,7 +19223,7 @@
         <v>26446</v>
       </c>
       <c r="C1001" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1001">
         <v>1</v>
@@ -19241,7 +19241,7 @@
         <v>30433</v>
       </c>
       <c r="C1002" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1002">
         <v>1</v>
@@ -19259,7 +19259,7 @@
         <v>33966</v>
       </c>
       <c r="C1003" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1003">
         <v>1</v>
@@ -19277,7 +19277,7 @@
         <v>36443</v>
       </c>
       <c r="C1004" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1004">
         <v>1</v>
@@ -19295,7 +19295,7 @@
         <v>38369</v>
       </c>
       <c r="C1005" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1005">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>39331</v>
       </c>
       <c r="C1006" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1006">
         <v>1</v>
@@ -19331,7 +19331,7 @@
         <v>40134</v>
       </c>
       <c r="C1007" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1007">
         <v>1</v>
@@ -19349,7 +19349,7 @@
         <v>40168</v>
       </c>
       <c r="C1008" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1008">
         <v>1</v>
@@ -19367,7 +19367,7 @@
         <v>40842</v>
       </c>
       <c r="C1009" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1009">
         <v>1</v>
@@ -19385,7 +19385,7 @@
         <v>41125</v>
       </c>
       <c r="C1010" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1010">
         <v>1</v>
@@ -19403,7 +19403,7 @@
         <v>41415</v>
       </c>
       <c r="C1011" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1011">
         <v>1</v>
@@ -19421,7 +19421,7 @@
         <v>41738</v>
       </c>
       <c r="C1012" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1012">
         <v>1</v>
@@ -19439,7 +19439,7 @@
         <v>41758</v>
       </c>
       <c r="C1013" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1013">
         <v>1</v>
@@ -19457,7 +19457,7 @@
         <v>42018</v>
       </c>
       <c r="C1014" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1014">
         <v>1</v>
@@ -19475,7 +19475,7 @@
         <v>42030</v>
       </c>
       <c r="C1015" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1015">
         <v>1</v>
@@ -19493,7 +19493,7 @@
         <v>44516</v>
       </c>
       <c r="C1016" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1016">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>44858</v>
       </c>
       <c r="C1017" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1017">
         <v>1</v>
@@ -19529,7 +19529,7 @@
         <v>45185</v>
       </c>
       <c r="C1018" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1018">
         <v>1</v>
@@ -19547,7 +19547,7 @@
         <v>46023</v>
       </c>
       <c r="C1019" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1019">
         <v>1</v>
@@ -19565,7 +19565,7 @@
         <v>46202</v>
       </c>
       <c r="C1020" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1020">
         <v>1</v>
@@ -19583,7 +19583,7 @@
         <v>46459</v>
       </c>
       <c r="C1021" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1021">
         <v>1</v>
@@ -19601,7 +19601,7 @@
         <v>46562</v>
       </c>
       <c r="C1022" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1022">
         <v>1</v>
@@ -19619,7 +19619,7 @@
         <v>47071</v>
       </c>
       <c r="C1023" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1023">
         <v>1</v>
@@ -19637,7 +19637,7 @@
         <v>49203</v>
       </c>
       <c r="C1024" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1024">
         <v>1</v>
@@ -19655,7 +19655,7 @@
         <v>50918</v>
       </c>
       <c r="C1025" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1025">
         <v>1</v>
@@ -19673,7 +19673,7 @@
         <v>52322</v>
       </c>
       <c r="C1026" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1026">
         <v>1</v>
@@ -19691,7 +19691,7 @@
         <v>53859</v>
       </c>
       <c r="C1027" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1027">
         <v>1</v>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="C1028" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1028">
         <v>2</v>
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="C1029" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1029">
         <v>2</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="C1030" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1030">
         <v>2</v>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
       <c r="C1031" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1031">
         <v>2</v>
@@ -19781,7 +19781,7 @@
         <v>0</v>
       </c>
       <c r="C1032" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1032">
         <v>2</v>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="C1033" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1033">
         <v>2</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C1034" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1034">
         <v>2</v>
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="C1035" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1035">
         <v>2</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="C1036" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1036">
         <v>2</v>
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
       <c r="C1037" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1037">
         <v>2</v>
@@ -19889,7 +19889,7 @@
         <v>0</v>
       </c>
       <c r="C1038" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1038">
         <v>2</v>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="C1039" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1039">
         <v>2</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="C1040" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1040">
         <v>2</v>
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="C1041" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1041">
         <v>2</v>
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="C1042" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1042">
         <v>2</v>
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="C1043" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1043">
         <v>2</v>
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="C1044" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1044">
         <v>2</v>
@@ -20015,7 +20015,7 @@
         <v>591</v>
       </c>
       <c r="C1045" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1045">
         <v>2</v>
@@ -20033,7 +20033,7 @@
         <v>890</v>
       </c>
       <c r="C1046" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1046">
         <v>2</v>
@@ -20051,7 +20051,7 @@
         <v>1167</v>
       </c>
       <c r="C1047" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1047">
         <v>2</v>
@@ -20069,7 +20069,7 @@
         <v>1525</v>
       </c>
       <c r="C1048" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1048">
         <v>2</v>
@@ -20087,7 +20087,7 @@
         <v>1796</v>
       </c>
       <c r="C1049" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1049">
         <v>2</v>
@@ -20105,7 +20105,7 @@
         <v>3220</v>
       </c>
       <c r="C1050" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1050">
         <v>2</v>
@@ -20123,7 +20123,7 @@
         <v>5450</v>
       </c>
       <c r="C1051" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1051">
         <v>2</v>
@@ -20141,7 +20141,7 @@
         <v>8352</v>
       </c>
       <c r="C1052" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1052">
         <v>2</v>
@@ -20159,7 +20159,7 @@
         <v>10193</v>
       </c>
       <c r="C1053" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1053">
         <v>2</v>
@@ -20177,7 +20177,7 @@
         <v>14439</v>
       </c>
       <c r="C1054" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1054">
         <v>2</v>
@@ -20195,13 +20195,13 @@
         <v>17218</v>
       </c>
       <c r="C1055" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1055">
         <v>2</v>
       </c>
       <c r="F1055">
-        <f t="shared" ref="F1055:F1118" si="27">B1055/$E$15*100</f>
+        <f t="shared" ref="F1055:F1065" si="27">B1055/$E$15*100</f>
         <v>0.58945566586785347</v>
       </c>
     </row>
@@ -20213,7 +20213,7 @@
         <v>19839</v>
       </c>
       <c r="C1056" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1056">
         <v>2</v>
@@ -20231,7 +20231,7 @@
         <v>21262</v>
       </c>
       <c r="C1057" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1057">
         <v>2</v>
@@ -20249,7 +20249,7 @@
         <v>22542</v>
       </c>
       <c r="C1058" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1058">
         <v>2</v>
@@ -20267,7 +20267,7 @@
         <v>24737</v>
       </c>
       <c r="C1059" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1059">
         <v>2</v>
@@ -20285,7 +20285,7 @@
         <v>26563</v>
       </c>
       <c r="C1060" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1060">
         <v>2</v>
@@ -20303,7 +20303,7 @@
         <v>30198</v>
       </c>
       <c r="C1061" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1061">
         <v>2</v>
@@ -20321,7 +20321,7 @@
         <v>33814</v>
       </c>
       <c r="C1062" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1062">
         <v>2</v>
@@ -20339,7 +20339,7 @@
         <v>36956</v>
       </c>
       <c r="C1063" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1063">
         <v>2</v>
@@ -20357,7 +20357,7 @@
         <v>39089</v>
       </c>
       <c r="C1064" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1064">
         <v>2</v>
@@ -20375,7 +20375,7 @@
         <v>40162</v>
       </c>
       <c r="C1065" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1065">
         <v>2</v>
@@ -20393,7 +20393,7 @@
         <v>1789</v>
       </c>
       <c r="C1066" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1066">
         <v>1</v>
@@ -20411,7 +20411,7 @@
         <v>1939</v>
       </c>
       <c r="C1067" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1067">
         <v>1</v>
@@ -20429,7 +20429,7 @@
         <v>2073</v>
       </c>
       <c r="C1068" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1068">
         <v>1</v>
@@ -20447,7 +20447,7 @@
         <v>2158</v>
       </c>
       <c r="C1069" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1069">
         <v>1</v>
@@ -20465,7 +20465,7 @@
         <v>2259</v>
       </c>
       <c r="C1070" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1070">
         <v>1</v>
@@ -20483,7 +20483,7 @@
         <v>2259</v>
       </c>
       <c r="C1071" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1071">
         <v>1</v>
@@ -20501,7 +20501,7 @@
         <v>2260</v>
       </c>
       <c r="C1072" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1072">
         <v>1</v>
@@ -20519,7 +20519,7 @@
         <v>2338</v>
       </c>
       <c r="C1073" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1073">
         <v>1</v>
@@ -20537,7 +20537,7 @@
         <v>2338</v>
       </c>
       <c r="C1074" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1074">
         <v>1</v>
@@ -20555,7 +20555,7 @@
         <v>2342</v>
       </c>
       <c r="C1075" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1075">
         <v>1</v>
@@ -20573,7 +20573,7 @@
         <v>2342</v>
       </c>
       <c r="C1076" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1076">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>2342</v>
       </c>
       <c r="C1077" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1077">
         <v>1</v>
@@ -20609,7 +20609,7 @@
         <v>2342</v>
       </c>
       <c r="C1078" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1078">
         <v>1</v>
@@ -20627,7 +20627,7 @@
         <v>2342</v>
       </c>
       <c r="C1079" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1079">
         <v>1</v>
@@ -20645,7 +20645,7 @@
         <v>2342</v>
       </c>
       <c r="C1080" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1080">
         <v>1</v>
@@ -20663,7 +20663,7 @@
         <v>2342</v>
       </c>
       <c r="C1081" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1081">
         <v>1</v>
@@ -20681,7 +20681,7 @@
         <v>2342</v>
       </c>
       <c r="C1082" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1082">
         <v>1</v>
@@ -20699,7 +20699,7 @@
         <v>2343</v>
       </c>
       <c r="C1083" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1083">
         <v>1</v>
@@ -20717,7 +20717,7 @@
         <v>2343</v>
       </c>
       <c r="C1084" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1084">
         <v>1</v>
@@ -20735,7 +20735,7 @@
         <v>2343</v>
       </c>
       <c r="C1085" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1085">
         <v>1</v>
@@ -20753,7 +20753,7 @@
         <v>2344</v>
       </c>
       <c r="C1086" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1086">
         <v>1</v>
@@ -20771,7 +20771,7 @@
         <v>2345</v>
       </c>
       <c r="C1087" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1087">
         <v>1</v>
@@ -20789,7 +20789,7 @@
         <v>2346</v>
       </c>
       <c r="C1088" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1088">
         <v>1</v>
@@ -20807,7 +20807,7 @@
         <v>2347</v>
       </c>
       <c r="C1089" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1089">
         <v>1</v>
@@ -20825,7 +20825,7 @@
         <v>2347</v>
       </c>
       <c r="C1090" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1090">
         <v>1</v>
@@ -20843,7 +20843,7 @@
         <v>2347</v>
       </c>
       <c r="C1091" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1091">
         <v>1</v>
@@ -20861,7 +20861,7 @@
         <v>2390</v>
       </c>
       <c r="C1092" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1092">
         <v>1</v>
@@ -20879,7 +20879,7 @@
         <v>2390</v>
       </c>
       <c r="C1093" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1093">
         <v>1</v>
@@ -20897,7 +20897,7 @@
         <v>2390</v>
       </c>
       <c r="C1094" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1094">
         <v>1</v>
@@ -20915,7 +20915,7 @@
         <v>2499</v>
       </c>
       <c r="C1095" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1095">
         <v>1</v>
@@ -20933,7 +20933,7 @@
         <v>2607</v>
       </c>
       <c r="C1096" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1096">
         <v>1</v>
@@ -20951,7 +20951,7 @@
         <v>2723</v>
       </c>
       <c r="C1097" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1097">
         <v>1</v>
@@ -20969,7 +20969,7 @@
         <v>2723</v>
       </c>
       <c r="C1098" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1098">
         <v>1</v>
@@ -20987,7 +20987,7 @@
         <v>2805</v>
       </c>
       <c r="C1099" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1099">
         <v>1</v>
@@ -21005,7 +21005,7 @@
         <v>2912</v>
       </c>
       <c r="C1100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1100">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>3020</v>
       </c>
       <c r="C1101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1101">
         <v>1</v>
@@ -21041,7 +21041,7 @@
         <v>3176</v>
       </c>
       <c r="C1102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1102">
         <v>1</v>
@@ -21059,7 +21059,7 @@
         <v>3331</v>
       </c>
       <c r="C1103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1103">
         <v>1</v>
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="C1104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1104">
         <v>2</v>
@@ -21095,7 +21095,7 @@
         <v>0</v>
       </c>
       <c r="C1105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1105">
         <v>2</v>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="C1106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1106">
         <v>2</v>
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="C1107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1107">
         <v>2</v>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="C1108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1108">
         <v>2</v>
@@ -21167,7 +21167,7 @@
         <v>0</v>
       </c>
       <c r="C1109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1109">
         <v>2</v>
@@ -21185,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="C1110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1110">
         <v>2</v>
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="C1111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1111">
         <v>2</v>
@@ -21221,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="C1112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1112">
         <v>2</v>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="C1113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1113">
         <v>2</v>
@@ -21257,7 +21257,7 @@
         <v>0</v>
       </c>
       <c r="C1114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1114">
         <v>2</v>
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="C1115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1115">
         <v>2</v>
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="C1116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1116">
         <v>2</v>
@@ -21311,7 +21311,7 @@
         <v>0</v>
       </c>
       <c r="C1117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1117">
         <v>2</v>
@@ -21329,7 +21329,7 @@
         <v>0</v>
       </c>
       <c r="C1118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1118">
         <v>2</v>
@@ -21347,7 +21347,7 @@
         <v>1</v>
       </c>
       <c r="C1119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1119">
         <v>2</v>
@@ -21365,7 +21365,7 @@
         <v>1</v>
       </c>
       <c r="C1120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1120">
         <v>2</v>
@@ -21383,7 +21383,7 @@
         <v>127</v>
       </c>
       <c r="C1121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1121">
         <v>2</v>
@@ -21401,7 +21401,7 @@
         <v>471</v>
       </c>
       <c r="C1122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1122">
         <v>2</v>
@@ -21419,7 +21419,7 @@
         <v>911</v>
       </c>
       <c r="C1123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1123">
         <v>2</v>
@@ -21437,7 +21437,7 @@
         <v>1276</v>
       </c>
       <c r="C1124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1124">
         <v>2</v>
@@ -21455,7 +21455,7 @@
         <v>1567</v>
       </c>
       <c r="C1125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1125">
         <v>2</v>
@@ -21473,7 +21473,7 @@
         <v>1759</v>
       </c>
       <c r="C1126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1126">
         <v>2</v>
@@ -21491,7 +21491,7 @@
         <v>1909</v>
       </c>
       <c r="C1127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1127">
         <v>2</v>
@@ -21509,7 +21509,7 @@
         <v>1987</v>
       </c>
       <c r="C1128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1128">
         <v>2</v>
@@ -21527,7 +21527,7 @@
         <v>2066</v>
       </c>
       <c r="C1129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1129">
         <v>2</v>
@@ -21545,7 +21545,7 @@
         <v>2132</v>
       </c>
       <c r="C1130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1130">
         <v>2</v>
@@ -21563,7 +21563,7 @@
         <v>2156</v>
       </c>
       <c r="C1131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1131">
         <v>2</v>
@@ -21581,7 +21581,7 @@
         <v>2287</v>
       </c>
       <c r="C1132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1132">
         <v>2</v>
@@ -21599,7 +21599,7 @@
         <v>2287</v>
       </c>
       <c r="C1133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1133">
         <v>2</v>
@@ -21617,7 +21617,7 @@
         <v>2318</v>
       </c>
       <c r="C1134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1134">
         <v>2</v>
@@ -21635,7 +21635,7 @@
         <v>2319</v>
       </c>
       <c r="C1135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1135">
         <v>2</v>
@@ -21653,7 +21653,7 @@
         <v>2319</v>
       </c>
       <c r="C1136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1136">
         <v>2</v>
@@ -21671,7 +21671,7 @@
         <v>2319</v>
       </c>
       <c r="C1137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1137">
         <v>2</v>
@@ -21689,7 +21689,7 @@
         <v>2319</v>
       </c>
       <c r="C1138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1138">
         <v>2</v>
@@ -21707,7 +21707,7 @@
         <v>2319</v>
       </c>
       <c r="C1139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1139">
         <v>2</v>
@@ -21725,7 +21725,7 @@
         <v>2319</v>
       </c>
       <c r="C1140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1140">
         <v>2</v>
@@ -21743,7 +21743,7 @@
         <v>2319</v>
       </c>
       <c r="C1141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1141">
         <v>2</v>
@@ -21761,7 +21761,7 @@
         <v>13691</v>
       </c>
       <c r="C1142" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1142">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>14134</v>
       </c>
       <c r="C1143" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1143">
         <v>1</v>
@@ -21797,7 +21797,7 @@
         <v>14855</v>
       </c>
       <c r="C1144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1144">
         <v>1</v>
@@ -21815,7 +21815,7 @@
         <v>18034</v>
       </c>
       <c r="C1145" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1145">
         <v>1</v>
@@ -21833,7 +21833,7 @@
         <v>22140</v>
       </c>
       <c r="C1146" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1146">
         <v>1</v>
@@ -21851,7 +21851,7 @@
         <v>25271</v>
       </c>
       <c r="C1147" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1147">
         <v>1</v>
@@ -21869,7 +21869,7 @@
         <v>27500</v>
       </c>
       <c r="C1148" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1148">
         <v>1</v>
@@ -21887,7 +21887,7 @@
         <v>28194</v>
       </c>
       <c r="C1149" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1149">
         <v>1</v>
@@ -21905,7 +21905,7 @@
         <v>28212</v>
       </c>
       <c r="C1150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1150">
         <v>1</v>
@@ -21923,7 +21923,7 @@
         <v>29052</v>
       </c>
       <c r="C1151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1151">
         <v>1</v>
@@ -21941,7 +21941,7 @@
         <v>30634</v>
       </c>
       <c r="C1152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1152">
         <v>1</v>
@@ -21959,7 +21959,7 @@
         <v>31527</v>
       </c>
       <c r="C1153" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1153">
         <v>1</v>
@@ -21977,7 +21977,7 @@
         <v>32028</v>
       </c>
       <c r="C1154" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1154">
         <v>1</v>
@@ -21995,7 +21995,7 @@
         <v>32465</v>
       </c>
       <c r="C1155" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1155">
         <v>1</v>
@@ -22013,7 +22013,7 @@
         <v>32665</v>
       </c>
       <c r="C1156" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1156">
         <v>1</v>
@@ -22031,7 +22031,7 @@
         <v>32762</v>
       </c>
       <c r="C1157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1157">
         <v>1</v>
@@ -22049,7 +22049,7 @@
         <v>32907</v>
       </c>
       <c r="C1158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1158">
         <v>1</v>
@@ -22067,7 +22067,7 @@
         <v>33788</v>
       </c>
       <c r="C1159" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1159">
         <v>1</v>
@@ -22085,7 +22085,7 @@
         <v>35272</v>
       </c>
       <c r="C1160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1160">
         <v>1</v>
@@ -22103,7 +22103,7 @@
         <v>35913</v>
       </c>
       <c r="C1161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1161">
         <v>1</v>
@@ -22121,7 +22121,7 @@
         <v>36103</v>
       </c>
       <c r="C1162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1162">
         <v>1</v>
@@ -22139,7 +22139,7 @@
         <v>36244</v>
       </c>
       <c r="C1163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1163">
         <v>1</v>
@@ -22157,7 +22157,7 @@
         <v>36385</v>
       </c>
       <c r="C1164" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1164">
         <v>1</v>
@@ -22175,7 +22175,7 @@
         <v>36445</v>
       </c>
       <c r="C1165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1165">
         <v>1</v>
@@ -22193,7 +22193,7 @@
         <v>36972</v>
       </c>
       <c r="C1166" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1166">
         <v>1</v>
@@ -22211,7 +22211,7 @@
         <v>37889</v>
       </c>
       <c r="C1167" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1167">
         <v>1</v>
@@ -22229,7 +22229,7 @@
         <v>37006</v>
       </c>
       <c r="C1168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1168">
         <v>1</v>
@@ -22247,7 +22247,7 @@
         <v>39970</v>
       </c>
       <c r="C1169" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1169">
         <v>1</v>
@@ -22265,7 +22265,7 @@
         <v>43862</v>
       </c>
       <c r="C1170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1170">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>48079</v>
       </c>
       <c r="C1171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1171">
         <v>1</v>
@@ -22301,7 +22301,7 @@
         <v>50482</v>
       </c>
       <c r="C1172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1172">
         <v>1</v>
@@ -22319,7 +22319,7 @@
         <v>52157</v>
       </c>
       <c r="C1173" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1173">
         <v>1</v>
@@ -22337,7 +22337,7 @@
         <v>53598</v>
       </c>
       <c r="C1174" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1174">
         <v>1</v>
@@ -22355,7 +22355,7 @@
         <v>54344</v>
       </c>
       <c r="C1175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1175">
         <v>1</v>
@@ -22373,7 +22373,7 @@
         <v>55037</v>
       </c>
       <c r="C1176" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1176">
         <v>1</v>
@@ -22391,7 +22391,7 @@
         <v>56587</v>
       </c>
       <c r="C1177" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1177">
         <v>1</v>
@@ -22409,7 +22409,7 @@
         <v>57466</v>
       </c>
       <c r="C1178" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1178">
         <v>1</v>
@@ -22427,7 +22427,7 @@
         <v>57682</v>
       </c>
       <c r="C1179" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1179">
         <v>1</v>
@@ -22445,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="C1180" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1180">
         <v>2</v>
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="C1181" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1181">
         <v>2</v>
@@ -22481,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="C1182" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1182">
         <v>2</v>
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="C1183" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1183">
         <v>2</v>
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="C1184" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1184">
         <v>2</v>
@@ -22535,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="C1185" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1185">
         <v>2</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="C1186" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1186">
         <v>2</v>
@@ -22571,7 +22571,7 @@
         <v>0</v>
       </c>
       <c r="C1187" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1187">
         <v>2</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="C1188" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1188">
         <v>2</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="C1189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1189">
         <v>2</v>
@@ -22625,7 +22625,7 @@
         <v>0</v>
       </c>
       <c r="C1190" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1190">
         <v>2</v>
@@ -22643,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="C1191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1191">
         <v>2</v>
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="C1192" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1192">
         <v>2</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="C1193" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1193">
         <v>2</v>
@@ -22697,7 +22697,7 @@
         <v>0</v>
       </c>
       <c r="C1194" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1194">
         <v>2</v>
@@ -22715,7 +22715,7 @@
         <v>0</v>
       </c>
       <c r="C1195" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1195">
         <v>2</v>
@@ -22733,7 +22733,7 @@
         <v>1487</v>
       </c>
       <c r="C1196" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1196">
         <v>2</v>
@@ -22751,7 +22751,7 @@
         <v>4848</v>
       </c>
       <c r="C1197" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1197">
         <v>2</v>
@@ -22769,7 +22769,7 @@
         <v>7735</v>
       </c>
       <c r="C1198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1198">
         <v>2</v>
@@ -22787,7 +22787,7 @@
         <v>9537</v>
       </c>
       <c r="C1199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1199">
         <v>2</v>
@@ -22805,7 +22805,7 @@
         <v>10166</v>
       </c>
       <c r="C1200" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1200">
         <v>2</v>
@@ -22823,7 +22823,7 @@
         <v>10643</v>
       </c>
       <c r="C1201" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1201">
         <v>2</v>
@@ -22841,7 +22841,7 @@
         <v>11017</v>
       </c>
       <c r="C1202" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1202">
         <v>2</v>
@@ -22859,7 +22859,7 @@
         <v>12100</v>
       </c>
       <c r="C1203" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1203">
         <v>2</v>
@@ -22877,7 +22877,7 @@
         <v>15135</v>
       </c>
       <c r="C1204" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1204">
         <v>2</v>
@@ -22895,7 +22895,7 @@
         <v>19145</v>
       </c>
       <c r="C1205" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1205">
         <v>2</v>
@@ -22913,7 +22913,7 @@
         <v>22429</v>
       </c>
       <c r="C1206" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1206">
         <v>2</v>
@@ -22931,7 +22931,7 @@
         <v>24535</v>
       </c>
       <c r="C1207" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1207">
         <v>2</v>
@@ -22949,7 +22949,7 @@
         <v>25236</v>
       </c>
       <c r="C1208" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1208">
         <v>2</v>
@@ -22967,7 +22967,7 @@
         <v>25287</v>
       </c>
       <c r="C1209" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1209">
         <v>2</v>
@@ -22985,7 +22985,7 @@
         <v>25615</v>
       </c>
       <c r="C1210" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1210">
         <v>2</v>
@@ -23003,7 +23003,7 @@
         <v>26600</v>
       </c>
       <c r="C1211" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1211">
         <v>2</v>
@@ -23021,7 +23021,7 @@
         <v>27281</v>
       </c>
       <c r="C1212" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1212">
         <v>2</v>
@@ -23039,7 +23039,7 @@
         <v>27645</v>
       </c>
       <c r="C1213" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1213">
         <v>2</v>
@@ -23057,7 +23057,7 @@
         <v>28472</v>
       </c>
       <c r="C1214" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1214">
         <v>2</v>
@@ -23075,7 +23075,7 @@
         <v>29332</v>
       </c>
       <c r="C1215" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1215">
         <v>2</v>
@@ -23093,7 +23093,7 @@
         <v>29873</v>
       </c>
       <c r="C1216" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1216">
         <v>2</v>
@@ -23111,7 +23111,7 @@
         <v>30014</v>
       </c>
       <c r="C1217" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1217">
         <v>2</v>

--- a/assignment2/data/vaccination_edited.xlsx
+++ b/assignment2/data/vaccination_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khash\Documents\GitHub\FIT3179\assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8FC34-6797-44CE-AB73-67C5CB690ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD5F5E-ECCA-4C18-B8CB-85033FEDB25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>Sarawak</t>
   </si>
   <si>
-    <t>Normalised Vaccinations</t>
+    <t>Percentage Vaccinated</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:AG1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assignment2/data/vaccination_edited.xlsx
+++ b/assignment2/data/vaccination_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khash\Documents\GitHub\FIT3179\assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDDAA8-5B46-4408-8444-D441C004970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86563F33-36CB-4D30-8300-09347DC9C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="J945" sqref="J945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17504,7 +17504,7 @@
         <v>36</v>
       </c>
       <c r="D914">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F914">
         <f>B914/$E$14*100</f>
@@ -17522,7 +17522,7 @@
         <v>36</v>
       </c>
       <c r="D915">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F915">
         <f t="shared" ref="F915:F978" si="24">B915/$E$14*100</f>
@@ -17540,7 +17540,7 @@
         <v>36</v>
       </c>
       <c r="D916">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F916">
         <f t="shared" si="24"/>
@@ -17558,7 +17558,7 @@
         <v>36</v>
       </c>
       <c r="D917">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F917">
         <f t="shared" si="24"/>
@@ -17576,7 +17576,7 @@
         <v>36</v>
       </c>
       <c r="D918">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F918">
         <f t="shared" si="24"/>
@@ -17594,7 +17594,7 @@
         <v>36</v>
       </c>
       <c r="D919">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F919">
         <f t="shared" si="24"/>
@@ -17612,7 +17612,7 @@
         <v>36</v>
       </c>
       <c r="D920">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F920">
         <f t="shared" si="24"/>
@@ -17630,7 +17630,7 @@
         <v>36</v>
       </c>
       <c r="D921">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F921">
         <f t="shared" si="24"/>
@@ -17648,7 +17648,7 @@
         <v>36</v>
       </c>
       <c r="D922">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F922">
         <f t="shared" si="24"/>
@@ -17666,7 +17666,7 @@
         <v>36</v>
       </c>
       <c r="D923">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F923">
         <f t="shared" si="24"/>
@@ -17684,7 +17684,7 @@
         <v>36</v>
       </c>
       <c r="D924">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F924">
         <f t="shared" si="24"/>
@@ -17702,7 +17702,7 @@
         <v>36</v>
       </c>
       <c r="D925">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F925">
         <f t="shared" si="24"/>
@@ -17720,7 +17720,7 @@
         <v>36</v>
       </c>
       <c r="D926">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F926">
         <f t="shared" si="24"/>
@@ -17738,7 +17738,7 @@
         <v>36</v>
       </c>
       <c r="D927">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F927">
         <f t="shared" si="24"/>
@@ -17756,7 +17756,7 @@
         <v>36</v>
       </c>
       <c r="D928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F928">
         <f t="shared" si="24"/>
@@ -17774,7 +17774,7 @@
         <v>36</v>
       </c>
       <c r="D929">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F929">
         <f t="shared" si="24"/>
@@ -17792,7 +17792,7 @@
         <v>36</v>
       </c>
       <c r="D930">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F930">
         <f t="shared" si="24"/>
@@ -17810,7 +17810,7 @@
         <v>36</v>
       </c>
       <c r="D931">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F931">
         <f t="shared" si="24"/>
@@ -17828,7 +17828,7 @@
         <v>36</v>
       </c>
       <c r="D932">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F932">
         <f t="shared" si="24"/>
@@ -17846,7 +17846,7 @@
         <v>36</v>
       </c>
       <c r="D933">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F933">
         <f t="shared" si="24"/>
@@ -17864,7 +17864,7 @@
         <v>36</v>
       </c>
       <c r="D934">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F934">
         <f t="shared" si="24"/>
@@ -17882,7 +17882,7 @@
         <v>36</v>
       </c>
       <c r="D935">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F935">
         <f t="shared" si="24"/>
@@ -17900,7 +17900,7 @@
         <v>36</v>
       </c>
       <c r="D936">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F936">
         <f t="shared" si="24"/>
@@ -17918,7 +17918,7 @@
         <v>36</v>
       </c>
       <c r="D937">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F937">
         <f t="shared" si="24"/>
@@ -17936,7 +17936,7 @@
         <v>36</v>
       </c>
       <c r="D938">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F938">
         <f t="shared" si="24"/>
@@ -17954,7 +17954,7 @@
         <v>36</v>
       </c>
       <c r="D939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F939">
         <f t="shared" si="24"/>
@@ -17972,7 +17972,7 @@
         <v>36</v>
       </c>
       <c r="D940">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F940">
         <f t="shared" si="24"/>
@@ -17990,7 +17990,7 @@
         <v>36</v>
       </c>
       <c r="D941">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F941">
         <f t="shared" si="24"/>
@@ -18008,7 +18008,7 @@
         <v>36</v>
       </c>
       <c r="D942">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F942">
         <f t="shared" si="24"/>
@@ -18026,7 +18026,7 @@
         <v>36</v>
       </c>
       <c r="D943">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F943">
         <f t="shared" si="24"/>
@@ -18044,7 +18044,7 @@
         <v>36</v>
       </c>
       <c r="D944">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F944">
         <f t="shared" si="24"/>
@@ -18062,7 +18062,7 @@
         <v>36</v>
       </c>
       <c r="D945">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F945">
         <f t="shared" si="24"/>
@@ -18080,7 +18080,7 @@
         <v>36</v>
       </c>
       <c r="D946">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F946">
         <f t="shared" si="24"/>
@@ -18098,7 +18098,7 @@
         <v>36</v>
       </c>
       <c r="D947">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F947">
         <f t="shared" si="24"/>
@@ -18116,7 +18116,7 @@
         <v>36</v>
       </c>
       <c r="D948">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F948">
         <f t="shared" si="24"/>
@@ -18134,7 +18134,7 @@
         <v>36</v>
       </c>
       <c r="D949">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F949">
         <f t="shared" si="24"/>
@@ -18152,7 +18152,7 @@
         <v>36</v>
       </c>
       <c r="D950">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F950">
         <f t="shared" si="24"/>
@@ -18170,7 +18170,7 @@
         <v>36</v>
       </c>
       <c r="D951">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F951">
         <f t="shared" si="24"/>
